--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_17_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112542.0934797036</v>
+        <v>-113320.3701313202</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3648562.622721704</v>
+        <v>3648562.622721699</v>
       </c>
     </row>
     <row r="8">
@@ -1370,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>157.2096858345399</v>
+        <v>276.3462824830167</v>
       </c>
       <c r="D11" t="n">
-        <v>267.3275865275447</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>289.0697240974503</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>309.6000006915978</v>
       </c>
       <c r="H11" t="n">
-        <v>221.8381768654981</v>
+        <v>186.5798760586226</v>
       </c>
       <c r="I11" t="n">
-        <v>47.16062625453688</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.49012359028571</v>
+        <v>70.49012359028573</v>
       </c>
       <c r="T11" t="n">
         <v>117.8309988535884</v>
@@ -1427,7 +1427,7 @@
         <v>150.5223597343418</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>231.8413427655141</v>
       </c>
       <c r="W11" t="n">
         <v>257.141442243471</v>
@@ -1436,7 +1436,7 @@
         <v>276.4417004762176</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="12">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.05710975594431</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>58.31849743395088</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
@@ -1458,16 +1458,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>31.57872147212044</v>
       </c>
       <c r="G12" t="n">
         <v>127.1336659090721</v>
       </c>
       <c r="H12" t="n">
-        <v>95.96820235480739</v>
+        <v>67.72146947862407</v>
       </c>
       <c r="I12" t="n">
-        <v>57.10960200584136</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.09140601927358</v>
+        <v>40.09140601927361</v>
       </c>
       <c r="S12" t="n">
         <v>145.5589030715301</v>
@@ -1509,13 +1509,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>137.1345714815191</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y12" t="n">
-        <v>105.2397782048923</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>53.71835877551722</v>
       </c>
       <c r="I13" t="n">
-        <v>33.23895922465158</v>
+        <v>33.23895922465159</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.66505460398374</v>
+        <v>34.66505460398376</v>
       </c>
       <c r="S13" t="n">
         <v>105.311099158971</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.375311109740391</v>
+        <v>288.334965525335</v>
       </c>
       <c r="C14" t="n">
         <v>276.3462824830167</v>
@@ -1616,16 +1616,16 @@
         <v>289.0697240974503</v>
       </c>
       <c r="F14" t="n">
-        <v>308.2415401854274</v>
+        <v>216.6166512998675</v>
       </c>
       <c r="G14" t="n">
-        <v>309.6000006915978</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>221.8381768654981</v>
       </c>
       <c r="I14" t="n">
-        <v>47.16062625453689</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.49012359028572</v>
+        <v>70.49012359028575</v>
       </c>
       <c r="T14" t="n">
         <v>117.8309988535884</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>150.5223597343418</v>
       </c>
       <c r="V14" t="n">
-        <v>231.8413427655141</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>257.141442243471</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>276.4417004762176</v>
       </c>
       <c r="Y14" t="n">
-        <v>287.8382982724164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,22 +1689,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>52.09391575766548</v>
       </c>
       <c r="E15" t="n">
-        <v>43.78959124619351</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>31.57872147212044</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1336659090721</v>
+        <v>25.36552731156817</v>
       </c>
       <c r="H15" t="n">
         <v>95.96820235480739</v>
       </c>
       <c r="I15" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S15" t="n">
         <v>145.5589030715301</v>
@@ -1740,7 +1740,7 @@
         <v>185.5586142282266</v>
       </c>
       <c r="U15" t="n">
-        <v>130.9332761043408</v>
+        <v>216.2896109863653</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1752,7 +1752,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>88.82797448941298</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1783,7 @@
         <v>53.71835877551722</v>
       </c>
       <c r="I16" t="n">
-        <v>33.23895922465158</v>
+        <v>33.23895922465159</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.66505460398375</v>
+        <v>34.66505460398377</v>
       </c>
       <c r="S16" t="n">
         <v>105.311099158971</v>
@@ -1853,7 +1853,7 @@
         <v>203.0895707472696</v>
       </c>
       <c r="F17" t="n">
-        <v>222.2613868352468</v>
+        <v>222.2613868352472</v>
       </c>
       <c r="G17" t="n">
         <v>223.6198473414171</v>
@@ -1898,10 +1898,10 @@
         <v>31.85084550340778</v>
       </c>
       <c r="U17" t="n">
-        <v>64.54220638416113</v>
+        <v>64.54220638416115</v>
       </c>
       <c r="V17" t="n">
-        <v>145.861189415332</v>
+        <v>145.8611894153335</v>
       </c>
       <c r="W17" t="n">
         <v>171.1612888932904</v>
@@ -1923,25 +1923,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>58.94231590210661</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>85.98018019109671</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>127.1336659090721</v>
       </c>
       <c r="H18" t="n">
-        <v>95.96820235480739</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S18" t="n">
         <v>145.5589030715301</v>
@@ -1986,7 +1986,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>8.189526293298769</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
         <v>190.5961130869169</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.9460840618648</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.22746252636389</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.56148380817552</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>136.4331932014877</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>19.33094580879036</v>
+        <v>207.079237756475</v>
       </c>
       <c r="T19" t="n">
         <v>41.99719680102657</v>
@@ -2059,7 +2059,7 @@
         <v>96.55598123316483</v>
       </c>
       <c r="V19" t="n">
-        <v>70.37965944947703</v>
+        <v>223.7995910996842</v>
       </c>
       <c r="W19" t="n">
         <v>95.54654552009029</v>
@@ -2166,7 +2166,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>9.742922127313685</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
@@ -2175,10 +2175,10 @@
         <v>127.1336659090721</v>
       </c>
       <c r="H21" t="n">
-        <v>95.96820235480739</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>57.10960200584137</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.5589030715301</v>
       </c>
       <c r="T21" t="n">
         <v>185.5586142282266</v>
@@ -2223,7 +2223,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>52.60410923548074</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.878757409692525</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>19.33094580879036</v>
+        <v>19.33094580879037</v>
       </c>
       <c r="T22" t="n">
-        <v>41.99719680102657</v>
+        <v>195.4171284512337</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3042731808494</v>
+        <v>96.55598123316483</v>
       </c>
       <c r="V22" t="n">
         <v>70.37965944947703</v>
@@ -2305,7 +2305,7 @@
         <v>41.19164751589341</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.06651527196109</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>31.85084550340778</v>
       </c>
       <c r="U23" t="n">
-        <v>64.54220638416115</v>
+        <v>64.54220638416113</v>
       </c>
       <c r="V23" t="n">
         <v>145.8611894153335</v>
@@ -2406,16 +2406,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>28.6975159075054</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1336659090721</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>95.96820235480739</v>
       </c>
       <c r="I24" t="n">
-        <v>57.10960200584137</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S24" t="n">
         <v>145.5589030715301</v>
@@ -2454,7 +2454,7 @@
         <v>216.2896109863653</v>
       </c>
       <c r="V24" t="n">
-        <v>124.9673461968004</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2463,7 +2463,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.847821139232366</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.931007553913035</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>19.33094580879036</v>
+        <v>19.33094580879037</v>
       </c>
       <c r="T25" t="n">
         <v>41.99719680102657</v>
       </c>
       <c r="U25" t="n">
-        <v>96.55598123316483</v>
+        <v>284.3042731808494</v>
       </c>
       <c r="V25" t="n">
         <v>70.37965944947703</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>95.54654552009029</v>
       </c>
       <c r="X25" t="n">
-        <v>41.19164751589341</v>
+        <v>194.6115791661006</v>
       </c>
       <c r="Y25" t="n">
         <v>32.06651527196109</v>
@@ -2555,19 +2555,19 @@
         <v>288.334965525335</v>
       </c>
       <c r="C26" t="n">
-        <v>276.3462824830168</v>
+        <v>276.3462824830167</v>
       </c>
       <c r="D26" t="n">
         <v>267.3275865275447</v>
       </c>
       <c r="E26" t="n">
-        <v>289.0697240974503</v>
+        <v>289.0697240974502</v>
       </c>
       <c r="F26" t="n">
         <v>308.2415401854274</v>
       </c>
       <c r="G26" t="n">
-        <v>309.6000006915978</v>
+        <v>309.6000006915977</v>
       </c>
       <c r="H26" t="n">
         <v>221.8381768654981</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.49012359028573</v>
+        <v>70.49012359028569</v>
       </c>
       <c r="T26" t="n">
         <v>117.8309988535884</v>
       </c>
       <c r="U26" t="n">
-        <v>150.5223597343418</v>
+        <v>150.5223597343417</v>
       </c>
       <c r="V26" t="n">
         <v>231.8413427655141</v>
@@ -2652,7 +2652,7 @@
         <v>95.96820235480739</v>
       </c>
       <c r="I27" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S27" t="n">
         <v>145.5589030715301</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.95167640003207</v>
+        <v>79.95167640003201</v>
       </c>
       <c r="C28" t="n">
-        <v>66.15167124543255</v>
+        <v>66.1516712454325</v>
       </c>
       <c r="D28" t="n">
-        <v>49.77303564301094</v>
+        <v>49.77303564301089</v>
       </c>
       <c r="E28" t="n">
-        <v>48.72078549879039</v>
+        <v>48.72078549879033</v>
       </c>
       <c r="F28" t="n">
-        <v>49.1877098269767</v>
+        <v>49.18770982697664</v>
       </c>
       <c r="G28" t="n">
-        <v>65.20457374105996</v>
+        <v>65.2045737410599</v>
       </c>
       <c r="H28" t="n">
-        <v>53.71835877551723</v>
+        <v>53.71835877551718</v>
       </c>
       <c r="I28" t="n">
-        <v>33.23895922465159</v>
+        <v>33.23895922465154</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66505460398376</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S28" t="n">
-        <v>105.311099158971</v>
+        <v>105.3110991589709</v>
       </c>
       <c r="T28" t="n">
         <v>127.9773501512072</v>
       </c>
       <c r="U28" t="n">
-        <v>182.5361345833455</v>
+        <v>182.5361345833454</v>
       </c>
       <c r="V28" t="n">
-        <v>156.3598127996577</v>
+        <v>156.3598127996576</v>
       </c>
       <c r="W28" t="n">
         <v>181.5266988702709</v>
@@ -2792,25 +2792,25 @@
         <v>288.334965525335</v>
       </c>
       <c r="C29" t="n">
-        <v>276.3462824830168</v>
+        <v>276.3462824830167</v>
       </c>
       <c r="D29" t="n">
         <v>267.3275865275447</v>
       </c>
       <c r="E29" t="n">
-        <v>289.0697240974503</v>
+        <v>289.0697240974502</v>
       </c>
       <c r="F29" t="n">
         <v>308.2415401854274</v>
       </c>
       <c r="G29" t="n">
-        <v>309.6000006915978</v>
+        <v>309.6000006915977</v>
       </c>
       <c r="H29" t="n">
         <v>221.8381768654981</v>
       </c>
       <c r="I29" t="n">
-        <v>47.16062625453689</v>
+        <v>47.16062625453687</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.49012359028573</v>
+        <v>70.49012359028569</v>
       </c>
       <c r="T29" t="n">
         <v>117.8309988535884</v>
       </c>
       <c r="U29" t="n">
-        <v>150.5223597343418</v>
+        <v>150.5223597343417</v>
       </c>
       <c r="V29" t="n">
         <v>231.8413427655141</v>
@@ -2889,7 +2889,7 @@
         <v>95.96820235480739</v>
       </c>
       <c r="I30" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927361</v>
       </c>
       <c r="S30" t="n">
         <v>145.5589030715301</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.95167640003207</v>
+        <v>79.95167640003201</v>
       </c>
       <c r="C31" t="n">
-        <v>66.15167124543255</v>
+        <v>66.1516712454325</v>
       </c>
       <c r="D31" t="n">
-        <v>49.77303564301094</v>
+        <v>49.77303564301089</v>
       </c>
       <c r="E31" t="n">
-        <v>48.72078549879039</v>
+        <v>48.72078549879033</v>
       </c>
       <c r="F31" t="n">
-        <v>49.1877098269767</v>
+        <v>49.18770982697664</v>
       </c>
       <c r="G31" t="n">
-        <v>65.20457374105997</v>
+        <v>65.20457374105992</v>
       </c>
       <c r="H31" t="n">
-        <v>53.71835877551725</v>
+        <v>53.71835877551717</v>
       </c>
       <c r="I31" t="n">
-        <v>33.23895922465159</v>
+        <v>33.23895922465154</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66505460398376</v>
+        <v>34.66505460398372</v>
       </c>
       <c r="S31" t="n">
-        <v>105.311099158971</v>
+        <v>105.3110991589709</v>
       </c>
       <c r="T31" t="n">
         <v>127.9773501512072</v>
       </c>
       <c r="U31" t="n">
-        <v>182.5361345833455</v>
+        <v>182.5361345833454</v>
       </c>
       <c r="V31" t="n">
-        <v>156.3598127996577</v>
+        <v>156.3598127996576</v>
       </c>
       <c r="W31" t="n">
         <v>181.5266988702709</v>
@@ -3029,22 +3029,22 @@
         <v>288.334965525335</v>
       </c>
       <c r="C32" t="n">
-        <v>276.3462824830168</v>
+        <v>276.3462824830167</v>
       </c>
       <c r="D32" t="n">
         <v>267.3275865275447</v>
       </c>
       <c r="E32" t="n">
-        <v>289.0697240974503</v>
+        <v>289.0697240974502</v>
       </c>
       <c r="F32" t="n">
         <v>308.2415401854274</v>
       </c>
       <c r="G32" t="n">
-        <v>309.6000006915978</v>
+        <v>309.6000006915977</v>
       </c>
       <c r="H32" t="n">
-        <v>221.8381768654981</v>
+        <v>221.838176865498</v>
       </c>
       <c r="I32" t="n">
         <v>47.16062625453689</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.49012359028573</v>
+        <v>70.49012359028571</v>
       </c>
       <c r="T32" t="n">
         <v>117.8309988535884</v>
       </c>
       <c r="U32" t="n">
-        <v>150.5223597343418</v>
+        <v>150.5223597343417</v>
       </c>
       <c r="V32" t="n">
         <v>231.8413427655141</v>
@@ -3126,7 +3126,7 @@
         <v>95.96820235480739</v>
       </c>
       <c r="I33" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S33" t="n">
         <v>145.5589030715301</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.95167640003207</v>
+        <v>79.95167640003201</v>
       </c>
       <c r="C34" t="n">
-        <v>66.15167124543255</v>
+        <v>66.1516712454325</v>
       </c>
       <c r="D34" t="n">
-        <v>49.77303564301094</v>
+        <v>49.77303564301089</v>
       </c>
       <c r="E34" t="n">
-        <v>48.72078549879039</v>
+        <v>48.72078549879033</v>
       </c>
       <c r="F34" t="n">
-        <v>49.1877098269767</v>
+        <v>49.18770982697664</v>
       </c>
       <c r="G34" t="n">
-        <v>65.20457374105996</v>
+        <v>65.2045737410599</v>
       </c>
       <c r="H34" t="n">
-        <v>53.71835877551723</v>
+        <v>53.71835877551718</v>
       </c>
       <c r="I34" t="n">
-        <v>33.23895922465159</v>
+        <v>33.23895922465154</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66505460398376</v>
+        <v>34.66505460398373</v>
       </c>
       <c r="S34" t="n">
-        <v>105.311099158971</v>
+        <v>105.3110991589709</v>
       </c>
       <c r="T34" t="n">
         <v>127.9773501512072</v>
       </c>
       <c r="U34" t="n">
-        <v>182.5361345833455</v>
+        <v>182.5361345833454</v>
       </c>
       <c r="V34" t="n">
-        <v>156.3598127996577</v>
+        <v>156.3598127996576</v>
       </c>
       <c r="W34" t="n">
         <v>181.5266988702709</v>
@@ -3266,19 +3266,19 @@
         <v>224.0964294492207</v>
       </c>
       <c r="C35" t="n">
-        <v>212.1077464069024</v>
+        <v>212.1077464069025</v>
       </c>
       <c r="D35" t="n">
         <v>203.0890504514304</v>
       </c>
       <c r="E35" t="n">
-        <v>224.8311880213359</v>
+        <v>224.831188021336</v>
       </c>
       <c r="F35" t="n">
         <v>244.0030041093131</v>
       </c>
       <c r="G35" t="n">
-        <v>245.3614646154834</v>
+        <v>245.3614646154835</v>
       </c>
       <c r="H35" t="n">
         <v>157.5996407893838</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.25158751417143</v>
+        <v>6.25158751417149</v>
       </c>
       <c r="T35" t="n">
-        <v>53.5924627774741</v>
+        <v>53.59246277747414</v>
       </c>
       <c r="U35" t="n">
-        <v>86.28382365822748</v>
+        <v>86.2838236582275</v>
       </c>
       <c r="V35" t="n">
         <v>167.6028066893998</v>
@@ -3329,7 +3329,7 @@
         <v>192.9029061673567</v>
       </c>
       <c r="X35" t="n">
-        <v>212.2031644001033</v>
+        <v>212.2031644001034</v>
       </c>
       <c r="Y35" t="n">
         <v>223.5997621963021</v>
@@ -3363,7 +3363,7 @@
         <v>95.96820235480739</v>
       </c>
       <c r="I36" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S36" t="n">
         <v>145.5589030715301</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.14188142068308</v>
+        <v>15.7131403239178</v>
       </c>
       <c r="C37" t="n">
-        <v>1.913135169318252</v>
+        <v>1.913135169318281</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9660376649456659</v>
+        <v>0.9660376649456947</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.377914847627141</v>
       </c>
       <c r="S37" t="n">
-        <v>41.07256308285669</v>
+        <v>207.079237756475</v>
       </c>
       <c r="T37" t="n">
-        <v>63.7388140750929</v>
+        <v>63.73881407509293</v>
       </c>
       <c r="U37" t="n">
         <v>118.2975985072312</v>
       </c>
       <c r="V37" t="n">
-        <v>92.12127672354336</v>
+        <v>92.12127672354339</v>
       </c>
       <c r="W37" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X37" t="n">
-        <v>62.93326478995974</v>
+        <v>62.93326478995976</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.80813254602742</v>
+        <v>53.80813254602745</v>
       </c>
     </row>
     <row r="38">
@@ -3503,19 +3503,19 @@
         <v>224.0964294492207</v>
       </c>
       <c r="C38" t="n">
-        <v>212.1077464069024</v>
+        <v>212.1077464069025</v>
       </c>
       <c r="D38" t="n">
         <v>203.0890504514304</v>
       </c>
       <c r="E38" t="n">
-        <v>224.8311880213359</v>
+        <v>224.831188021336</v>
       </c>
       <c r="F38" t="n">
         <v>244.0030041093131</v>
       </c>
       <c r="G38" t="n">
-        <v>245.3614646154834</v>
+        <v>245.3614646154835</v>
       </c>
       <c r="H38" t="n">
         <v>157.5996407893838</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.251587514171433</v>
+        <v>6.25158751417149</v>
       </c>
       <c r="T38" t="n">
-        <v>53.59246277747411</v>
+        <v>53.59246277747414</v>
       </c>
       <c r="U38" t="n">
-        <v>86.28382365822748</v>
+        <v>86.2838236582275</v>
       </c>
       <c r="V38" t="n">
         <v>167.6028066893998</v>
@@ -3566,7 +3566,7 @@
         <v>192.9029061673567</v>
       </c>
       <c r="X38" t="n">
-        <v>212.2031644001033</v>
+        <v>212.2031644001034</v>
       </c>
       <c r="Y38" t="n">
         <v>223.5997621963021</v>
@@ -3600,7 +3600,7 @@
         <v>95.96820235480739</v>
       </c>
       <c r="I39" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S39" t="n">
         <v>145.5589030715301</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.71314032391777</v>
+        <v>15.7131403239178</v>
       </c>
       <c r="C40" t="n">
-        <v>1.913135169318252</v>
+        <v>1.913135169318281</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9660376649456659</v>
+        <v>0.9660376649456947</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.84341528073107</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.07256308285669</v>
+        <v>41.07256308285672</v>
       </c>
       <c r="T40" t="n">
-        <v>63.7388140750929</v>
+        <v>63.73881407509293</v>
       </c>
       <c r="U40" t="n">
         <v>118.2975985072312</v>
       </c>
       <c r="V40" t="n">
-        <v>92.12127672354336</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2881627941566</v>
+        <v>121.6660776417838</v>
       </c>
       <c r="X40" t="n">
-        <v>62.93326478995974</v>
+        <v>62.93326478995976</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.80813254602742</v>
+        <v>53.80813254602745</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.25158751417143</v>
+        <v>6.251587514171451</v>
       </c>
       <c r="T41" t="n">
-        <v>53.5924627774741</v>
+        <v>53.59246277747411</v>
       </c>
       <c r="U41" t="n">
         <v>86.28382365822748</v>
@@ -3837,7 +3837,7 @@
         <v>95.96820235480739</v>
       </c>
       <c r="I42" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S42" t="n">
         <v>145.5589030715301</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9660376649456659</v>
+        <v>0.9660376649456662</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.377914847627479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.07256308285669</v>
+        <v>41.0725630828567</v>
       </c>
       <c r="T43" t="n">
         <v>63.7388140750929</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3042731808494</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V43" t="n">
         <v>92.12127672354336</v>
       </c>
       <c r="W43" t="n">
-        <v>121.6660776417843</v>
+        <v>117.2881627941566</v>
       </c>
       <c r="X43" t="n">
         <v>62.93326478995974</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.80813254602742</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>244.0030041093131</v>
       </c>
       <c r="G44" t="n">
-        <v>245.3614646154834</v>
+        <v>245.3614646154825</v>
       </c>
       <c r="H44" t="n">
         <v>157.5996407893838</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.251587514171433</v>
+        <v>6.251587514171462</v>
       </c>
       <c r="T44" t="n">
         <v>53.59246277747411</v>
@@ -4074,7 +4074,7 @@
         <v>95.96820235480739</v>
       </c>
       <c r="I45" t="n">
-        <v>57.10960200584137</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>40.09140601927359</v>
+        <v>40.09140601927362</v>
       </c>
       <c r="S45" t="n">
         <v>145.5589030715301</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9660376649456659</v>
+        <v>0.9660376649456662</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>41.07256308285669</v>
+        <v>207.079237756475</v>
       </c>
       <c r="T46" t="n">
         <v>63.7388140750929</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3042731808494</v>
+        <v>118.2975985072312</v>
       </c>
       <c r="V46" t="n">
-        <v>92.12127672354336</v>
+        <v>96.49919157117085</v>
       </c>
       <c r="W46" t="n">
         <v>117.2881627941566</v>
       </c>
       <c r="X46" t="n">
-        <v>67.31117963758739</v>
+        <v>62.93326478995974</v>
       </c>
       <c r="Y46" t="n">
         <v>53.80813254602742</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1349.880780013529</v>
+        <v>824.9518496721853</v>
       </c>
       <c r="C11" t="n">
-        <v>1191.083117554397</v>
+        <v>545.8141905984307</v>
       </c>
       <c r="D11" t="n">
-        <v>921.0552523750594</v>
+        <v>545.8141905984307</v>
       </c>
       <c r="E11" t="n">
-        <v>629.0656320746045</v>
+        <v>545.8141905984307</v>
       </c>
       <c r="F11" t="n">
-        <v>629.0656320746045</v>
+        <v>545.8141905984307</v>
       </c>
       <c r="G11" t="n">
-        <v>316.3383586487484</v>
+        <v>233.0869171725743</v>
       </c>
       <c r="H11" t="n">
-        <v>92.25939211794227</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I11" t="n">
         <v>44.62239590123834</v>
@@ -5042,19 +5042,19 @@
         <v>164.9191384091039</v>
       </c>
       <c r="K11" t="n">
-        <v>477.4459895919359</v>
+        <v>477.4459895919357</v>
       </c>
       <c r="L11" t="n">
-        <v>915.133190897966</v>
+        <v>915.1331908979657</v>
       </c>
       <c r="M11" t="n">
-        <v>1408.294194006878</v>
+        <v>1194.48082416383</v>
       </c>
       <c r="N11" t="n">
-        <v>1888.164229335809</v>
+        <v>1674.350859492761</v>
       </c>
       <c r="O11" t="n">
-        <v>1888.164229335809</v>
+        <v>2075.235537020013</v>
       </c>
       <c r="P11" t="n">
         <v>2075.235537020013</v>
@@ -5072,19 +5072,19 @@
         <v>2040.896439058004</v>
       </c>
       <c r="U11" t="n">
-        <v>1888.853651447557</v>
+        <v>1888.853651447558</v>
       </c>
       <c r="V11" t="n">
-        <v>1888.853651447557</v>
+        <v>1654.670476936938</v>
       </c>
       <c r="W11" t="n">
-        <v>1629.114820898597</v>
+        <v>1394.931646387977</v>
       </c>
       <c r="X11" t="n">
-        <v>1349.880780013529</v>
+        <v>1115.697605502909</v>
       </c>
       <c r="Y11" t="n">
-        <v>1349.880780013529</v>
+        <v>824.9518496721853</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>909.9284028246603</v>
+        <v>618.1176835549304</v>
       </c>
       <c r="C12" t="n">
-        <v>748.2247300656151</v>
+        <v>559.2101103893234</v>
       </c>
       <c r="D12" t="n">
-        <v>609.3860930558271</v>
+        <v>420.3714733795355</v>
       </c>
       <c r="E12" t="n">
-        <v>462.3580831126983</v>
+        <v>273.3434634364067</v>
       </c>
       <c r="F12" t="n">
-        <v>327.6642850625726</v>
+        <v>241.4457649797194</v>
       </c>
       <c r="G12" t="n">
-        <v>199.2464407099745</v>
+        <v>113.0279206271213</v>
       </c>
       <c r="H12" t="n">
-        <v>102.3088625738054</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I12" t="n">
         <v>44.62239590123834</v>
       </c>
       <c r="J12" t="n">
-        <v>44.62239590123834</v>
+        <v>133.642618427364</v>
       </c>
       <c r="K12" t="n">
-        <v>323.2787541266701</v>
+        <v>412.2989766527957</v>
       </c>
       <c r="L12" t="n">
-        <v>755.2100924509771</v>
+        <v>844.2303149771026</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.412241728802</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.412241728802</v>
+        <v>1406.24081646591</v>
       </c>
       <c r="O12" t="n">
-        <v>1772.054201908678</v>
+        <v>1870.882776645786</v>
       </c>
       <c r="P12" t="n">
-        <v>2034.482380229164</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="Q12" t="n">
         <v>2231.119795061917</v>
@@ -5145,7 +5145,7 @@
         <v>2190.623425345479</v>
       </c>
       <c r="S12" t="n">
-        <v>2043.594230323732</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T12" t="n">
         <v>1856.161286658856</v>
@@ -5157,13 +5157,13 @@
         <v>1409.291309575508</v>
       </c>
       <c r="W12" t="n">
-        <v>1270.771540402256</v>
+        <v>1167.975440808818</v>
       </c>
       <c r="X12" t="n">
-        <v>1072.854552280051</v>
+        <v>970.0584526866124</v>
       </c>
       <c r="Y12" t="n">
-        <v>966.5517460124829</v>
+        <v>777.5371263361912</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.314409997642</v>
+        <v>414.3144099976413</v>
       </c>
       <c r="C13" t="n">
-        <v>347.4945400527607</v>
+        <v>347.4945400527599</v>
       </c>
       <c r="D13" t="n">
-        <v>297.2187464739617</v>
+        <v>297.218746473961</v>
       </c>
       <c r="E13" t="n">
-        <v>248.0058318287189</v>
+        <v>248.0058318287182</v>
       </c>
       <c r="F13" t="n">
-        <v>198.3212764479344</v>
+        <v>198.3212764479337</v>
       </c>
       <c r="G13" t="n">
-        <v>132.4580706488836</v>
+        <v>132.4580706488832</v>
       </c>
       <c r="H13" t="n">
         <v>78.1971021887652</v>
@@ -5197,22 +5197,22 @@
         <v>44.62239590123834</v>
       </c>
       <c r="J13" t="n">
-        <v>104.5576652116672</v>
+        <v>104.5576652116671</v>
       </c>
       <c r="K13" t="n">
-        <v>268.5689297794104</v>
+        <v>268.5689297794102</v>
       </c>
       <c r="L13" t="n">
-        <v>507.8767290772419</v>
+        <v>507.8767290772416</v>
       </c>
       <c r="M13" t="n">
-        <v>766.6339233993393</v>
+        <v>766.6339233993391</v>
       </c>
       <c r="N13" t="n">
         <v>1024.868528144629</v>
       </c>
       <c r="O13" t="n">
-        <v>1260.162531829994</v>
+        <v>1260.162531829993</v>
       </c>
       <c r="P13" t="n">
         <v>1454.754060196291</v>
@@ -5221,7 +5221,7 @@
         <v>1539.108648437726</v>
       </c>
       <c r="R13" t="n">
-        <v>1504.093441767036</v>
+        <v>1504.093441767035</v>
       </c>
       <c r="S13" t="n">
         <v>1397.718594131711</v>
@@ -5233,16 +5233,16 @@
         <v>1084.068609551355</v>
       </c>
       <c r="V13" t="n">
-        <v>926.1294047032164</v>
+        <v>926.1294047032158</v>
       </c>
       <c r="W13" t="n">
-        <v>742.7691028140539</v>
+        <v>742.7691028140532</v>
       </c>
       <c r="X13" t="n">
-        <v>614.312738302868</v>
+        <v>614.3127383028673</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.0736790885834</v>
+        <v>495.0736790885828</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1511.548002545205</v>
+        <v>1058.633340088948</v>
       </c>
       <c r="C14" t="n">
-        <v>1232.410343471451</v>
+        <v>779.4956810151938</v>
       </c>
       <c r="D14" t="n">
-        <v>1232.410343471451</v>
+        <v>779.4956810151938</v>
       </c>
       <c r="E14" t="n">
-        <v>940.4207231709961</v>
+        <v>487.506060714739</v>
       </c>
       <c r="F14" t="n">
-        <v>629.0656320746048</v>
+        <v>268.7013624320446</v>
       </c>
       <c r="G14" t="n">
-        <v>316.3383586487485</v>
+        <v>268.7013624320446</v>
       </c>
       <c r="H14" t="n">
-        <v>92.25939211794227</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I14" t="n">
         <v>44.62239590123834</v>
       </c>
       <c r="J14" t="n">
-        <v>164.9191384091039</v>
+        <v>164.9191384091038</v>
       </c>
       <c r="K14" t="n">
-        <v>477.4459895919358</v>
+        <v>477.4459895919356</v>
       </c>
       <c r="L14" t="n">
-        <v>915.133190897966</v>
+        <v>915.1331908979656</v>
       </c>
       <c r="M14" t="n">
-        <v>1285.377164077434</v>
+        <v>1408.294194006877</v>
       </c>
       <c r="N14" t="n">
-        <v>1765.247199406365</v>
+        <v>1408.294194006877</v>
       </c>
       <c r="O14" t="n">
         <v>1765.247199406365</v>
@@ -5309,19 +5309,19 @@
         <v>2040.896439058004</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.896439058004</v>
+        <v>1888.853651447558</v>
       </c>
       <c r="V14" t="n">
-        <v>1806.713264547384</v>
+        <v>1888.853651447558</v>
       </c>
       <c r="W14" t="n">
-        <v>1806.713264547384</v>
+        <v>1629.114820898597</v>
       </c>
       <c r="X14" t="n">
-        <v>1806.713264547384</v>
+        <v>1349.880780013529</v>
       </c>
       <c r="Y14" t="n">
-        <v>1515.96750871666</v>
+        <v>1349.880780013529</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>807.1323032312218</v>
+        <v>618.1176835549304</v>
       </c>
       <c r="C15" t="n">
-        <v>645.4286304721766</v>
+        <v>456.4140107958851</v>
       </c>
       <c r="D15" t="n">
-        <v>506.5899934623887</v>
+        <v>403.7938938689503</v>
       </c>
       <c r="E15" t="n">
-        <v>462.3580831126983</v>
+        <v>256.7658839258215</v>
       </c>
       <c r="F15" t="n">
-        <v>327.6642850625726</v>
+        <v>224.8681854691342</v>
       </c>
       <c r="G15" t="n">
         <v>199.2464407099745</v>
@@ -5355,25 +5355,25 @@
         <v>44.62239590123834</v>
       </c>
       <c r="J15" t="n">
-        <v>44.62239590123834</v>
+        <v>133.642618427364</v>
       </c>
       <c r="K15" t="n">
-        <v>323.2787541266701</v>
+        <v>412.2989766527957</v>
       </c>
       <c r="L15" t="n">
-        <v>755.210092450977</v>
+        <v>844.2303149771024</v>
       </c>
       <c r="M15" t="n">
-        <v>755.210092450977</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.603401633156</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="O15" t="n">
-        <v>1674.245361813033</v>
+        <v>1861.074424434803</v>
       </c>
       <c r="P15" t="n">
-        <v>2034.482380229164</v>
+        <v>2221.311442850934</v>
       </c>
       <c r="Q15" t="n">
         <v>2231.119795061917</v>
@@ -5382,25 +5382,25 @@
         <v>2190.623425345479</v>
       </c>
       <c r="S15" t="n">
-        <v>2043.594230323732</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T15" t="n">
         <v>1856.161286658856</v>
       </c>
       <c r="U15" t="n">
-        <v>1723.905452210027</v>
+        <v>1637.686932127174</v>
       </c>
       <c r="V15" t="n">
-        <v>1495.509829658361</v>
+        <v>1409.291309575508</v>
       </c>
       <c r="W15" t="n">
-        <v>1254.193960891671</v>
+        <v>1167.975440808818</v>
       </c>
       <c r="X15" t="n">
-        <v>1056.276972769466</v>
+        <v>970.0584526866124</v>
       </c>
       <c r="Y15" t="n">
-        <v>966.5517460124827</v>
+        <v>777.5371263361912</v>
       </c>
     </row>
     <row r="16">
@@ -5434,19 +5434,19 @@
         <v>44.62239590123834</v>
       </c>
       <c r="J16" t="n">
-        <v>104.557665211667</v>
+        <v>104.5576652116678</v>
       </c>
       <c r="K16" t="n">
-        <v>268.5689297794102</v>
+        <v>268.568929779411</v>
       </c>
       <c r="L16" t="n">
-        <v>507.8767290772416</v>
+        <v>507.8767290772423</v>
       </c>
       <c r="M16" t="n">
-        <v>766.6339233993392</v>
+        <v>766.6339233993398</v>
       </c>
       <c r="N16" t="n">
-        <v>1024.868528144629</v>
+        <v>1024.86852814463</v>
       </c>
       <c r="O16" t="n">
         <v>1260.162531829994</v>
@@ -5501,7 +5501,7 @@
         <v>632.2378077113209</v>
       </c>
       <c r="F17" t="n">
-        <v>407.7313563625867</v>
+        <v>407.7313563625863</v>
       </c>
       <c r="G17" t="n">
         <v>181.8527226843873</v>
@@ -5513,16 +5513,16 @@
         <v>44.62239590123834</v>
       </c>
       <c r="J17" t="n">
-        <v>164.9191384091039</v>
+        <v>164.9191384091038</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5143174641708</v>
+        <v>477.4459895919356</v>
       </c>
       <c r="L17" t="n">
-        <v>871.2015187702009</v>
+        <v>884.4924865501822</v>
       </c>
       <c r="M17" t="n">
-        <v>1364.362521879113</v>
+        <v>884.4924865501822</v>
       </c>
       <c r="N17" t="n">
         <v>1364.362521879113</v>
@@ -5546,7 +5546,7 @@
         <v>2198.947223846354</v>
       </c>
       <c r="U17" t="n">
-        <v>2133.753075983565</v>
+        <v>2133.753075983564</v>
       </c>
       <c r="V17" t="n">
         <v>1986.418541220601</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>807.7624228960258</v>
+        <v>618.1176835549304</v>
       </c>
       <c r="C18" t="n">
-        <v>748.2247300656151</v>
+        <v>456.4140107958851</v>
       </c>
       <c r="D18" t="n">
-        <v>609.3860930558271</v>
+        <v>317.5753737860972</v>
       </c>
       <c r="E18" t="n">
-        <v>462.3580831126983</v>
+        <v>230.7267069264036</v>
       </c>
       <c r="F18" t="n">
-        <v>327.6642850625726</v>
+        <v>230.7267069264036</v>
       </c>
       <c r="G18" t="n">
-        <v>199.2464407099745</v>
+        <v>102.3088625738054</v>
       </c>
       <c r="H18" t="n">
         <v>102.3088625738054</v>
@@ -5592,19 +5592,19 @@
         <v>44.62239590123834</v>
       </c>
       <c r="J18" t="n">
-        <v>44.62239590123834</v>
+        <v>133.642618427364</v>
       </c>
       <c r="K18" t="n">
-        <v>323.2787541266701</v>
+        <v>412.2989766527957</v>
       </c>
       <c r="L18" t="n">
-        <v>657.401252355332</v>
+        <v>657.4012523553324</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.603401633156</v>
+        <v>1209.603401633157</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.603401633156</v>
+        <v>1209.603401633157</v>
       </c>
       <c r="O18" t="n">
         <v>1674.245361813033</v>
@@ -5619,7 +5619,7 @@
         <v>2190.623425345479</v>
       </c>
       <c r="S18" t="n">
-        <v>2043.594230323732</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T18" t="n">
         <v>1856.161286658856</v>
@@ -5634,10 +5634,10 @@
         <v>1167.975440808818</v>
       </c>
       <c r="X18" t="n">
-        <v>1159.703192027708</v>
+        <v>970.0584526866124</v>
       </c>
       <c r="Y18" t="n">
-        <v>967.1818656772867</v>
+        <v>777.5371263361912</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.6966853842976</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="C19" t="n">
-        <v>234.6966853842976</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="D19" t="n">
-        <v>234.6966853842976</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="E19" t="n">
-        <v>234.6966853842976</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="F19" t="n">
-        <v>86.26629744302005</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="G19" t="n">
-        <v>86.26629744302005</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="H19" t="n">
-        <v>86.26629744302005</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I19" t="n">
-        <v>86.26629744302005</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="J19" t="n">
         <v>44.62239590123834</v>
@@ -5677,46 +5677,46 @@
         <v>107.8832032574526</v>
       </c>
       <c r="L19" t="n">
-        <v>246.4405453437551</v>
+        <v>246.440545343755</v>
       </c>
       <c r="M19" t="n">
-        <v>404.4472824543237</v>
+        <v>404.4472824543236</v>
       </c>
       <c r="N19" t="n">
-        <v>561.9314299880847</v>
+        <v>561.9314299880845</v>
       </c>
       <c r="O19" t="n">
-        <v>696.4749764619202</v>
+        <v>696.4749764619199</v>
       </c>
       <c r="P19" t="n">
-        <v>790.3160476166885</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="Q19" t="n">
-        <v>773.5872760932789</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="R19" t="n">
-        <v>635.7759698291499</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="S19" t="n">
-        <v>616.2497619414828</v>
+        <v>581.1451003879256</v>
       </c>
       <c r="T19" t="n">
-        <v>573.8283510313549</v>
+        <v>538.7236894777977</v>
       </c>
       <c r="U19" t="n">
-        <v>476.297056856441</v>
+        <v>441.1923953028838</v>
       </c>
       <c r="V19" t="n">
-        <v>405.2064917559591</v>
+        <v>215.1322022728997</v>
       </c>
       <c r="W19" t="n">
-        <v>308.6948296144537</v>
+        <v>118.6205401313944</v>
       </c>
       <c r="X19" t="n">
-        <v>267.087104850925</v>
+        <v>77.01281536786571</v>
       </c>
       <c r="Y19" t="n">
-        <v>234.6966853842976</v>
+        <v>44.62239590123834</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1212.847033021895</v>
+        <v>1212.847033021897</v>
       </c>
       <c r="C20" t="n">
-        <v>1020.558013695798</v>
+        <v>1020.5580136958</v>
       </c>
       <c r="D20" t="n">
-        <v>837.3787882641175</v>
+        <v>837.3787882641188</v>
       </c>
       <c r="E20" t="n">
-        <v>632.2378077113199</v>
+        <v>632.2378077113212</v>
       </c>
       <c r="F20" t="n">
-        <v>407.7313563625858</v>
+        <v>407.7313563625871</v>
       </c>
       <c r="G20" t="n">
         <v>181.8527226843873</v>
@@ -5750,25 +5750,25 @@
         <v>44.62239590123834</v>
       </c>
       <c r="J20" t="n">
-        <v>109.5285401771442</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="K20" t="n">
-        <v>109.5285401771442</v>
+        <v>357.1492470840702</v>
       </c>
       <c r="L20" t="n">
-        <v>547.2157414831743</v>
+        <v>794.8364483901001</v>
       </c>
       <c r="M20" t="n">
-        <v>1040.376744592086</v>
+        <v>1287.997451499012</v>
       </c>
       <c r="N20" t="n">
-        <v>1520.246779921017</v>
+        <v>1364.362521879113</v>
       </c>
       <c r="O20" t="n">
-        <v>1921.131457448269</v>
+        <v>1765.247199406365</v>
       </c>
       <c r="P20" t="n">
-        <v>2231.119795061917</v>
+        <v>2075.235537020013</v>
       </c>
       <c r="Q20" t="n">
         <v>2231.119795061917</v>
@@ -5780,22 +5780,22 @@
         <v>2231.119795061917</v>
       </c>
       <c r="T20" t="n">
-        <v>2198.947223846352</v>
+        <v>2198.947223846354</v>
       </c>
       <c r="U20" t="n">
-        <v>2133.753075983563</v>
+        <v>2133.753075983565</v>
       </c>
       <c r="V20" t="n">
-        <v>1986.4185412206</v>
+        <v>1986.418541220602</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.528350419296</v>
+        <v>1813.528350419298</v>
       </c>
       <c r="X20" t="n">
-        <v>1621.142949281885</v>
+        <v>1621.142949281887</v>
       </c>
       <c r="Y20" t="n">
-        <v>1417.245833198818</v>
+        <v>1417.24583319882</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>909.9284028246603</v>
+        <v>618.1176835549304</v>
       </c>
       <c r="C21" t="n">
-        <v>748.2247300656151</v>
+        <v>456.4140107958851</v>
       </c>
       <c r="D21" t="n">
-        <v>609.3860930558271</v>
+        <v>317.5753737860972</v>
       </c>
       <c r="E21" t="n">
-        <v>462.3580831126983</v>
+        <v>307.7340383039622</v>
       </c>
       <c r="F21" t="n">
-        <v>327.6642850625726</v>
+        <v>173.0402402538365</v>
       </c>
       <c r="G21" t="n">
-        <v>199.2464407099745</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3088625738054</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I21" t="n">
         <v>44.62239590123834</v>
@@ -5832,16 +5832,16 @@
         <v>133.642618427364</v>
       </c>
       <c r="K21" t="n">
-        <v>412.2989766527958</v>
+        <v>412.2989766527957</v>
       </c>
       <c r="L21" t="n">
-        <v>844.2303149771026</v>
+        <v>844.2303149771024</v>
       </c>
       <c r="M21" t="n">
-        <v>1209.603401633156</v>
+        <v>1396.432464254927</v>
       </c>
       <c r="N21" t="n">
-        <v>1209.603401633156</v>
+        <v>1674.245361813033</v>
       </c>
       <c r="O21" t="n">
         <v>1674.245361813033</v>
@@ -5856,25 +5856,25 @@
         <v>2190.623425345479</v>
       </c>
       <c r="S21" t="n">
-        <v>2190.623425345479</v>
+        <v>2043.594230323731</v>
       </c>
       <c r="T21" t="n">
-        <v>2003.190481680604</v>
+        <v>1856.161286658856</v>
       </c>
       <c r="U21" t="n">
-        <v>1784.716127148921</v>
+        <v>1637.686932127174</v>
       </c>
       <c r="V21" t="n">
-        <v>1556.320504597255</v>
+        <v>1409.291309575508</v>
       </c>
       <c r="W21" t="n">
-        <v>1315.004635830565</v>
+        <v>1167.975440808818</v>
       </c>
       <c r="X21" t="n">
-        <v>1261.869171956342</v>
+        <v>970.0584526866124</v>
       </c>
       <c r="Y21" t="n">
-        <v>1069.347845605921</v>
+        <v>777.5371263361912</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>199.5920238307408</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="C22" t="n">
-        <v>199.5920238307408</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="D22" t="n">
-        <v>46.52013065850352</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="E22" t="n">
-        <v>46.52013065850352</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="F22" t="n">
-        <v>46.52013065850352</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="G22" t="n">
-        <v>46.52013065850352</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="H22" t="n">
-        <v>46.52013065850352</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I22" t="n">
         <v>44.62239590123834</v>
@@ -5914,46 +5914,46 @@
         <v>107.8832032574526</v>
       </c>
       <c r="L22" t="n">
-        <v>246.4405453437551</v>
+        <v>246.440545343755</v>
       </c>
       <c r="M22" t="n">
-        <v>404.4472824543237</v>
+        <v>404.4472824543236</v>
       </c>
       <c r="N22" t="n">
-        <v>561.9314299880847</v>
+        <v>561.9314299880845</v>
       </c>
       <c r="O22" t="n">
-        <v>696.4749764619202</v>
+        <v>696.4749764619199</v>
       </c>
       <c r="P22" t="n">
-        <v>790.3160476166885</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="Q22" t="n">
-        <v>790.3160476166885</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="R22" t="n">
-        <v>790.3160476166885</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="S22" t="n">
-        <v>770.7898397290214</v>
+        <v>770.7898397290212</v>
       </c>
       <c r="T22" t="n">
-        <v>728.3684288188936</v>
+        <v>573.3988008893912</v>
       </c>
       <c r="U22" t="n">
-        <v>441.1923953028841</v>
+        <v>475.8675067144771</v>
       </c>
       <c r="V22" t="n">
-        <v>370.1018302024022</v>
+        <v>404.7769416139953</v>
       </c>
       <c r="W22" t="n">
-        <v>273.5901680608969</v>
+        <v>308.26527947249</v>
       </c>
       <c r="X22" t="n">
-        <v>231.9824432973682</v>
+        <v>266.6575547089612</v>
       </c>
       <c r="Y22" t="n">
-        <v>199.5920238307408</v>
+        <v>44.62239590123834</v>
       </c>
     </row>
     <row r="23">
@@ -5969,49 +5969,49 @@
         <v>1020.558013695799</v>
       </c>
       <c r="D23" t="n">
-        <v>837.378788264118</v>
+        <v>837.3787882641182</v>
       </c>
       <c r="E23" t="n">
-        <v>632.2378077113203</v>
+        <v>632.2378077113206</v>
       </c>
       <c r="F23" t="n">
-        <v>407.7313563625862</v>
+        <v>407.7313563625864</v>
       </c>
       <c r="G23" t="n">
         <v>181.8527226843873</v>
       </c>
       <c r="H23" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I23" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="J23" t="n">
-        <v>164.9191384091039</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="K23" t="n">
-        <v>477.4459895919358</v>
+        <v>357.1492470840702</v>
       </c>
       <c r="L23" t="n">
-        <v>915.133190897966</v>
+        <v>792.2161609685229</v>
       </c>
       <c r="M23" t="n">
-        <v>1364.362521879112</v>
+        <v>1285.377164077434</v>
       </c>
       <c r="N23" t="n">
-        <v>1364.362521879112</v>
+        <v>1765.247199406365</v>
       </c>
       <c r="O23" t="n">
-        <v>1765.247199406364</v>
+        <v>1765.247199406365</v>
       </c>
       <c r="P23" t="n">
-        <v>2075.235537020012</v>
+        <v>2075.235537020013</v>
       </c>
       <c r="Q23" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R23" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="S23" t="n">
         <v>2231.119795061916</v>
@@ -6023,7 +6023,7 @@
         <v>2133.753075983564</v>
       </c>
       <c r="V23" t="n">
-        <v>1986.4185412206</v>
+        <v>1986.418541220601</v>
       </c>
       <c r="W23" t="n">
         <v>1813.528350419297</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>909.9284028246603</v>
+        <v>618.1176835549304</v>
       </c>
       <c r="C24" t="n">
-        <v>748.2247300656151</v>
+        <v>456.4140107958851</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3860930558271</v>
+        <v>317.5753737860972</v>
       </c>
       <c r="E24" t="n">
-        <v>462.3580831126983</v>
+        <v>170.5473638429684</v>
       </c>
       <c r="F24" t="n">
-        <v>327.6642850625726</v>
+        <v>141.5599740374074</v>
       </c>
       <c r="G24" t="n">
-        <v>199.2464407099745</v>
+        <v>141.5599740374074</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3088625738054</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I24" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="J24" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="K24" t="n">
-        <v>323.2787541266701</v>
+        <v>323.27875412667</v>
       </c>
       <c r="L24" t="n">
-        <v>323.2787541266701</v>
+        <v>755.2100924509768</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4809034044943</v>
+        <v>755.2100924509768</v>
       </c>
       <c r="N24" t="n">
-        <v>1427.683052682318</v>
+        <v>1209.603401633157</v>
       </c>
       <c r="O24" t="n">
-        <v>1674.245361813032</v>
+        <v>1674.245361813033</v>
       </c>
       <c r="P24" t="n">
-        <v>2034.482380229163</v>
+        <v>2034.482380229164</v>
       </c>
       <c r="Q24" t="n">
-        <v>2231.119795061916</v>
+        <v>2231.119795061917</v>
       </c>
       <c r="R24" t="n">
-        <v>2190.623425345478</v>
+        <v>2190.623425345479</v>
       </c>
       <c r="S24" t="n">
         <v>2043.594230323731</v>
       </c>
       <c r="T24" t="n">
-        <v>1856.161286658855</v>
+        <v>1856.161286658856</v>
       </c>
       <c r="U24" t="n">
-        <v>1637.686932127173</v>
+        <v>1637.686932127174</v>
       </c>
       <c r="V24" t="n">
-        <v>1511.457289504142</v>
+        <v>1409.291309575508</v>
       </c>
       <c r="W24" t="n">
-        <v>1270.141420737452</v>
+        <v>1167.975440808818</v>
       </c>
       <c r="X24" t="n">
-        <v>1072.224432615247</v>
+        <v>970.0584526866124</v>
       </c>
       <c r="Y24" t="n">
-        <v>1069.347845605921</v>
+        <v>777.5371263361912</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.5920238307407</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="C25" t="n">
-        <v>199.5920238307407</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="D25" t="n">
-        <v>196.6314101399195</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="E25" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="F25" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="G25" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="H25" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="I25" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="J25" t="n">
-        <v>44.62239590123833</v>
+        <v>44.62239590123834</v>
       </c>
       <c r="K25" t="n">
         <v>107.8832032574526</v>
       </c>
       <c r="L25" t="n">
-        <v>246.4405453437551</v>
+        <v>246.440545343755</v>
       </c>
       <c r="M25" t="n">
-        <v>404.4472824543237</v>
+        <v>404.4472824543236</v>
       </c>
       <c r="N25" t="n">
-        <v>561.9314299880847</v>
+        <v>561.9314299880845</v>
       </c>
       <c r="O25" t="n">
-        <v>696.4749764619202</v>
+        <v>696.4749764619199</v>
       </c>
       <c r="P25" t="n">
-        <v>790.3160476166885</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="Q25" t="n">
-        <v>790.3160476166885</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="R25" t="n">
-        <v>790.3160476166885</v>
+        <v>790.3160476166883</v>
       </c>
       <c r="S25" t="n">
-        <v>770.7898397290214</v>
+        <v>770.7898397290212</v>
       </c>
       <c r="T25" t="n">
-        <v>728.3684288188936</v>
+        <v>728.3684288188933</v>
       </c>
       <c r="U25" t="n">
-        <v>630.8371346439795</v>
+        <v>441.1923953028838</v>
       </c>
       <c r="V25" t="n">
-        <v>559.7465695434977</v>
+        <v>370.101830202402</v>
       </c>
       <c r="W25" t="n">
-        <v>273.5901680608968</v>
+        <v>273.5901680608966</v>
       </c>
       <c r="X25" t="n">
-        <v>231.9824432973681</v>
+        <v>77.01281536786571</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.5920238307407</v>
+        <v>44.62239590123834</v>
       </c>
     </row>
     <row r="26">
@@ -6215,46 +6215,46 @@
         <v>654.5323965231141</v>
       </c>
       <c r="G26" t="n">
-        <v>341.8051230972578</v>
+        <v>341.8051230972574</v>
       </c>
       <c r="H26" t="n">
-        <v>117.7261565664513</v>
+        <v>117.7261565664512</v>
       </c>
       <c r="I26" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J26" t="n">
-        <v>190.3859028576129</v>
+        <v>291.1363600691417</v>
       </c>
       <c r="K26" t="n">
-        <v>603.6632112519737</v>
+        <v>704.4136684635025</v>
       </c>
       <c r="L26" t="n">
-        <v>1142.100869769533</v>
+        <v>1242.851326981061</v>
       </c>
       <c r="M26" t="n">
         <v>1736.012330089973</v>
       </c>
       <c r="N26" t="n">
-        <v>2316.632822630433</v>
+        <v>2287.78732771832</v>
       </c>
       <c r="O26" t="n">
         <v>2789.422462457102</v>
       </c>
       <c r="P26" t="n">
-        <v>3200.161257282279</v>
+        <v>3200.161257282278</v>
       </c>
       <c r="Q26" t="n">
-        <v>3456.795972535712</v>
+        <v>3456.795972535711</v>
       </c>
       <c r="R26" t="n">
-        <v>3504.458017487366</v>
+        <v>3504.458017487365</v>
       </c>
       <c r="S26" t="n">
-        <v>3433.255872446674</v>
+        <v>3433.255872446673</v>
       </c>
       <c r="T26" t="n">
-        <v>3314.234661483453</v>
+        <v>3314.234661483452</v>
       </c>
       <c r="U26" t="n">
         <v>3162.191873873006</v>
@@ -6300,28 +6300,28 @@
         <v>127.7756270223144</v>
       </c>
       <c r="I27" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J27" t="n">
         <v>159.109382875873</v>
       </c>
       <c r="K27" t="n">
-        <v>437.7657411013048</v>
+        <v>437.7657411013047</v>
       </c>
       <c r="L27" t="n">
-        <v>869.6970794256117</v>
+        <v>869.6970794256115</v>
       </c>
       <c r="M27" t="n">
-        <v>1431.877093263434</v>
+        <v>1431.877093263433</v>
       </c>
       <c r="N27" t="n">
-        <v>1526.880885351395</v>
+        <v>2022.33124225597</v>
       </c>
       <c r="O27" t="n">
-        <v>1991.522845531272</v>
+        <v>2486.973202435847</v>
       </c>
       <c r="P27" t="n">
-        <v>2351.759863947403</v>
+        <v>2486.973202435847</v>
       </c>
       <c r="Q27" t="n">
         <v>2548.397278780156</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>439.7811744461508</v>
+        <v>439.7811744461503</v>
       </c>
       <c r="C28" t="n">
-        <v>372.9613045012694</v>
+        <v>372.961304501269</v>
       </c>
       <c r="D28" t="n">
-        <v>322.6855109224705</v>
+        <v>322.6855109224701</v>
       </c>
       <c r="E28" t="n">
-        <v>273.4725962772276</v>
+        <v>273.4725962772274</v>
       </c>
       <c r="F28" t="n">
-        <v>223.7880408964431</v>
+        <v>223.7880408964429</v>
       </c>
       <c r="G28" t="n">
-        <v>157.9248350973926</v>
+        <v>157.9248350973925</v>
       </c>
       <c r="H28" t="n">
-        <v>103.6638666372742</v>
+        <v>103.6638666372741</v>
       </c>
       <c r="I28" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J28" t="n">
         <v>130.024429660176</v>
       </c>
       <c r="K28" t="n">
-        <v>294.0356942279192</v>
+        <v>294.0356942279188</v>
       </c>
       <c r="L28" t="n">
-        <v>533.3434935257512</v>
+        <v>533.3434935257503</v>
       </c>
       <c r="M28" t="n">
-        <v>792.1006878478488</v>
+        <v>792.1006878478478</v>
       </c>
       <c r="N28" t="n">
-        <v>1050.335292593139</v>
+        <v>1050.335292593138</v>
       </c>
       <c r="O28" t="n">
-        <v>1285.629296278503</v>
+        <v>1285.629296278502</v>
       </c>
       <c r="P28" t="n">
-        <v>1480.220824644801</v>
+        <v>1480.220824644799</v>
       </c>
       <c r="Q28" t="n">
-        <v>1564.575412886236</v>
+        <v>1564.575412886235</v>
       </c>
       <c r="R28" t="n">
-        <v>1529.560206215545</v>
+        <v>1529.560206215544</v>
       </c>
       <c r="S28" t="n">
-        <v>1423.185358580221</v>
+        <v>1423.18535858022</v>
       </c>
       <c r="T28" t="n">
-        <v>1293.915307922436</v>
+        <v>1293.915307922435</v>
       </c>
       <c r="U28" t="n">
-        <v>1109.535373999865</v>
+        <v>1109.535373999864</v>
       </c>
       <c r="V28" t="n">
-        <v>951.5961691517253</v>
+        <v>951.5961691517247</v>
       </c>
       <c r="W28" t="n">
-        <v>768.2358672625628</v>
+        <v>768.2358672625621</v>
       </c>
       <c r="X28" t="n">
-        <v>639.7795027513769</v>
+        <v>639.7795027513763</v>
       </c>
       <c r="Y28" t="n">
-        <v>520.5404435370923</v>
+        <v>520.5404435370917</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>1807.042632173053</v>
       </c>
       <c r="C29" t="n">
-        <v>1527.904973099299</v>
+        <v>1527.904973099298</v>
       </c>
       <c r="D29" t="n">
-        <v>1257.877107919961</v>
+        <v>1257.87710791996</v>
       </c>
       <c r="E29" t="n">
         <v>965.8874876195055</v>
@@ -6455,55 +6455,55 @@
         <v>341.8051230972578</v>
       </c>
       <c r="H29" t="n">
-        <v>117.7261565664513</v>
+        <v>117.7261565664512</v>
       </c>
       <c r="I29" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J29" t="n">
-        <v>291.1363600691418</v>
+        <v>291.1363600691417</v>
       </c>
       <c r="K29" t="n">
-        <v>704.4136684635027</v>
+        <v>622.4797612915161</v>
       </c>
       <c r="L29" t="n">
-        <v>1242.851326981062</v>
+        <v>1160.917419809075</v>
       </c>
       <c r="M29" t="n">
-        <v>1807.91729238939</v>
+        <v>1754.828880129515</v>
       </c>
       <c r="N29" t="n">
-        <v>2388.537784929849</v>
+        <v>2335.449372669975</v>
       </c>
       <c r="O29" t="n">
-        <v>2890.172919668631</v>
+        <v>2837.084507408756</v>
       </c>
       <c r="P29" t="n">
-        <v>3200.161257282279</v>
+        <v>3247.823302233933</v>
       </c>
       <c r="Q29" t="n">
-        <v>3456.795972535712</v>
+        <v>3504.458017487365</v>
       </c>
       <c r="R29" t="n">
-        <v>3504.458017487366</v>
+        <v>3504.458017487365</v>
       </c>
       <c r="S29" t="n">
         <v>3433.255872446673</v>
       </c>
       <c r="T29" t="n">
-        <v>3314.234661483453</v>
+        <v>3314.234661483452</v>
       </c>
       <c r="U29" t="n">
-        <v>3162.191873873007</v>
+        <v>3162.191873873006</v>
       </c>
       <c r="V29" t="n">
-        <v>2928.008699362387</v>
+        <v>2928.008699362386</v>
       </c>
       <c r="W29" t="n">
         <v>2668.269868813426</v>
       </c>
       <c r="X29" t="n">
-        <v>2389.035827928358</v>
+        <v>2389.035827928357</v>
       </c>
       <c r="Y29" t="n">
         <v>2098.290072097634</v>
@@ -6537,22 +6537,22 @@
         <v>127.7756270223144</v>
       </c>
       <c r="I30" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J30" t="n">
         <v>159.109382875873</v>
       </c>
       <c r="K30" t="n">
-        <v>437.7657411013048</v>
+        <v>374.2467225210366</v>
       </c>
       <c r="L30" t="n">
-        <v>869.6970794256117</v>
+        <v>374.2467225210366</v>
       </c>
       <c r="M30" t="n">
-        <v>1431.877093263434</v>
+        <v>936.4267363588586</v>
       </c>
       <c r="N30" t="n">
-        <v>1526.880885351395</v>
+        <v>1526.880885351396</v>
       </c>
       <c r="O30" t="n">
         <v>1991.522845531272</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.7811744461501</v>
+        <v>439.7811744461504</v>
       </c>
       <c r="C31" t="n">
-        <v>372.9613045012687</v>
+        <v>372.9613045012691</v>
       </c>
       <c r="D31" t="n">
-        <v>322.6855109224698</v>
+        <v>322.6855109224703</v>
       </c>
       <c r="E31" t="n">
-        <v>273.472596277227</v>
+        <v>273.4725962772275</v>
       </c>
       <c r="F31" t="n">
-        <v>223.7880408964424</v>
+        <v>223.788040896443</v>
       </c>
       <c r="G31" t="n">
-        <v>157.9248350973919</v>
+        <v>157.9248350973926</v>
       </c>
       <c r="H31" t="n">
-        <v>103.6638666372742</v>
+        <v>103.6638666372741</v>
       </c>
       <c r="I31" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J31" t="n">
         <v>130.0244296601759</v>
@@ -6628,7 +6628,7 @@
         <v>533.3434935257505</v>
       </c>
       <c r="M31" t="n">
-        <v>792.1006878478479</v>
+        <v>792.100687847848</v>
       </c>
       <c r="N31" t="n">
         <v>1050.335292593138</v>
@@ -6637,10 +6637,10 @@
         <v>1285.629296278502</v>
       </c>
       <c r="P31" t="n">
-        <v>1480.220824644799</v>
+        <v>1480.2208246448</v>
       </c>
       <c r="Q31" t="n">
-        <v>1564.575412886235</v>
+        <v>1564.575412886234</v>
       </c>
       <c r="R31" t="n">
         <v>1529.560206215544</v>
@@ -6655,7 +6655,7 @@
         <v>1109.535373999864</v>
       </c>
       <c r="V31" t="n">
-        <v>951.5961691517248</v>
+        <v>951.5961691517246</v>
       </c>
       <c r="W31" t="n">
         <v>768.2358672625621</v>
@@ -6664,7 +6664,7 @@
         <v>639.7795027513763</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.5404435370916</v>
+        <v>520.5404435370918</v>
       </c>
     </row>
     <row r="32">
@@ -6683,55 +6683,55 @@
         <v>1257.877107919961</v>
       </c>
       <c r="E32" t="n">
-        <v>965.8874876195056</v>
+        <v>965.8874876195057</v>
       </c>
       <c r="F32" t="n">
-        <v>654.5323965231141</v>
+        <v>654.532396523115</v>
       </c>
       <c r="G32" t="n">
-        <v>341.8051230972575</v>
+        <v>341.8051230972587</v>
       </c>
       <c r="H32" t="n">
-        <v>117.7261565664513</v>
+        <v>117.7261565664512</v>
       </c>
       <c r="I32" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J32" t="n">
-        <v>291.1363600691418</v>
+        <v>190.3859028576128</v>
       </c>
       <c r="K32" t="n">
-        <v>704.4136684635027</v>
+        <v>603.6632112519735</v>
       </c>
       <c r="L32" t="n">
-        <v>1242.851326981062</v>
+        <v>1142.100869769532</v>
       </c>
       <c r="M32" t="n">
-        <v>1836.762787301502</v>
+        <v>1736.012330089973</v>
       </c>
       <c r="N32" t="n">
-        <v>2417.383279841962</v>
+        <v>2287.78732771832</v>
       </c>
       <c r="O32" t="n">
-        <v>2919.018414580743</v>
+        <v>2789.422462457102</v>
       </c>
       <c r="P32" t="n">
-        <v>3229.006752194392</v>
+        <v>3200.161257282278</v>
       </c>
       <c r="Q32" t="n">
-        <v>3456.795972535712</v>
+        <v>3456.795972535711</v>
       </c>
       <c r="R32" t="n">
-        <v>3504.458017487366</v>
+        <v>3504.458017487365</v>
       </c>
       <c r="S32" t="n">
         <v>3433.255872446673</v>
       </c>
       <c r="T32" t="n">
-        <v>3314.234661483453</v>
+        <v>3314.234661483452</v>
       </c>
       <c r="U32" t="n">
-        <v>3162.191873873007</v>
+        <v>3162.191873873006</v>
       </c>
       <c r="V32" t="n">
         <v>2928.008699362386</v>
@@ -6774,22 +6774,22 @@
         <v>127.7756270223144</v>
       </c>
       <c r="I33" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J33" t="n">
         <v>159.109382875873</v>
       </c>
       <c r="K33" t="n">
-        <v>437.7657411013048</v>
+        <v>437.7657411013047</v>
       </c>
       <c r="L33" t="n">
-        <v>869.6970794256117</v>
+        <v>869.6970794256115</v>
       </c>
       <c r="M33" t="n">
-        <v>1431.877093263434</v>
+        <v>1431.877093263433</v>
       </c>
       <c r="N33" t="n">
-        <v>1526.880885351395</v>
+        <v>1526.880885351396</v>
       </c>
       <c r="O33" t="n">
         <v>1991.522845531272</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>439.7811744461508</v>
+        <v>439.7811744461503</v>
       </c>
       <c r="C34" t="n">
-        <v>372.9613045012694</v>
+        <v>372.961304501269</v>
       </c>
       <c r="D34" t="n">
-        <v>322.6855109224705</v>
+        <v>322.6855109224701</v>
       </c>
       <c r="E34" t="n">
-        <v>273.4725962772276</v>
+        <v>273.4725962772274</v>
       </c>
       <c r="F34" t="n">
-        <v>223.7880408964431</v>
+        <v>223.7880408964429</v>
       </c>
       <c r="G34" t="n">
-        <v>157.9248350973926</v>
+        <v>157.9248350973925</v>
       </c>
       <c r="H34" t="n">
-        <v>103.6638666372742</v>
+        <v>103.6638666372741</v>
       </c>
       <c r="I34" t="n">
-        <v>70.08916034974733</v>
+        <v>70.0891603497473</v>
       </c>
       <c r="J34" t="n">
         <v>130.024429660176</v>
@@ -6865,43 +6865,43 @@
         <v>533.3434935257507</v>
       </c>
       <c r="M34" t="n">
-        <v>792.1006878478488</v>
+        <v>792.1006878478481</v>
       </c>
       <c r="N34" t="n">
-        <v>1050.335292593139</v>
+        <v>1050.335292593138</v>
       </c>
       <c r="O34" t="n">
         <v>1285.629296278503</v>
       </c>
       <c r="P34" t="n">
-        <v>1480.220824644801</v>
+        <v>1480.220824644799</v>
       </c>
       <c r="Q34" t="n">
-        <v>1564.575412886236</v>
+        <v>1564.575412886235</v>
       </c>
       <c r="R34" t="n">
-        <v>1529.560206215545</v>
+        <v>1529.560206215544</v>
       </c>
       <c r="S34" t="n">
-        <v>1423.185358580221</v>
+        <v>1423.18535858022</v>
       </c>
       <c r="T34" t="n">
-        <v>1293.915307922436</v>
+        <v>1293.915307922435</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.535373999865</v>
+        <v>1109.535373999864</v>
       </c>
       <c r="V34" t="n">
-        <v>951.5961691517253</v>
+        <v>951.5961691517247</v>
       </c>
       <c r="W34" t="n">
-        <v>768.2358672625628</v>
+        <v>768.2358672625621</v>
       </c>
       <c r="X34" t="n">
-        <v>639.7795027513769</v>
+        <v>639.7795027513763</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.5404435370923</v>
+        <v>520.5404435370917</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1136.319482346041</v>
       </c>
       <c r="D35" t="n">
-        <v>931.1790273445968</v>
+        <v>931.1790273445965</v>
       </c>
       <c r="E35" t="n">
-        <v>704.0768172220353</v>
+        <v>704.0768172220351</v>
       </c>
       <c r="F35" t="n">
-        <v>457.6091363035371</v>
+        <v>457.6091363035373</v>
       </c>
       <c r="G35" t="n">
-        <v>209.7692730555743</v>
+        <v>209.7692730555744</v>
       </c>
       <c r="H35" t="n">
         <v>50.57771670266141</v>
@@ -6935,25 +6935,25 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J35" t="n">
-        <v>94.76772906546495</v>
+        <v>170.8744592105269</v>
       </c>
       <c r="K35" t="n">
-        <v>407.2945802482969</v>
+        <v>483.4013103933587</v>
       </c>
       <c r="L35" t="n">
-        <v>844.981781554327</v>
+        <v>921.0885116993886</v>
       </c>
       <c r="M35" t="n">
-        <v>1338.142784663239</v>
+        <v>1414.2495148083</v>
       </c>
       <c r="N35" t="n">
-        <v>1818.012819992169</v>
+        <v>1662.128561950267</v>
       </c>
       <c r="O35" t="n">
-        <v>2218.897497519422</v>
+        <v>2063.013239477519</v>
       </c>
       <c r="P35" t="n">
-        <v>2528.88583513307</v>
+        <v>2373.001577091167</v>
       </c>
       <c r="Q35" t="n">
         <v>2528.88583513307</v>
@@ -6965,7 +6965,7 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T35" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U35" t="n">
         <v>2381.281922052391</v>
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>915.8837236260828</v>
+        <v>915.8837236260832</v>
       </c>
       <c r="C36" t="n">
-        <v>754.1800508670376</v>
+        <v>754.1800508670381</v>
       </c>
       <c r="D36" t="n">
-        <v>615.3414138572498</v>
+        <v>615.3414138572502</v>
       </c>
       <c r="E36" t="n">
-        <v>468.313403914121</v>
+        <v>468.3134039141214</v>
       </c>
       <c r="F36" t="n">
-        <v>333.6196058639953</v>
+        <v>333.6196058639957</v>
       </c>
       <c r="G36" t="n">
-        <v>205.2017615113974</v>
+        <v>205.2017615113978</v>
       </c>
       <c r="H36" t="n">
-        <v>108.2641833752284</v>
+        <v>108.2641833752285</v>
       </c>
       <c r="I36" t="n">
         <v>50.57771670266141</v>
       </c>
       <c r="J36" t="n">
-        <v>139.5979392287871</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K36" t="n">
-        <v>418.2542974542188</v>
+        <v>329.2340749280931</v>
       </c>
       <c r="L36" t="n">
-        <v>819.377239053827</v>
+        <v>761.1654132523998</v>
       </c>
       <c r="M36" t="n">
-        <v>1381.557252891649</v>
+        <v>916.9152927117734</v>
       </c>
       <c r="N36" t="n">
-        <v>1972.011401884186</v>
+        <v>1507.36944170431</v>
       </c>
       <c r="O36" t="n">
-        <v>1972.011401884186</v>
+        <v>1972.011401884187</v>
       </c>
       <c r="P36" t="n">
-        <v>2332.248420300317</v>
+        <v>2332.248420300318</v>
       </c>
       <c r="Q36" t="n">
         <v>2528.88583513307</v>
@@ -7041,7 +7041,7 @@
         <v>2488.389465416632</v>
       </c>
       <c r="S36" t="n">
-        <v>2341.360270394884</v>
+        <v>2341.360270394885</v>
       </c>
       <c r="T36" t="n">
         <v>2153.927326730009</v>
@@ -7050,10 +7050,10 @@
         <v>1935.452972198327</v>
       </c>
       <c r="V36" t="n">
-        <v>1707.05734964666</v>
+        <v>1707.057349646661</v>
       </c>
       <c r="W36" t="n">
-        <v>1465.74148087997</v>
+        <v>1465.741480879971</v>
       </c>
       <c r="X36" t="n">
         <v>1267.824492757765</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.9666270650297</v>
+        <v>53.48597209080684</v>
       </c>
       <c r="C37" t="n">
-        <v>204.0341672980415</v>
+        <v>51.55351232381868</v>
       </c>
       <c r="D37" t="n">
-        <v>204.0341672980415</v>
+        <v>51.55351232381868</v>
       </c>
       <c r="E37" t="n">
-        <v>204.0341672980415</v>
+        <v>51.55351232381868</v>
       </c>
       <c r="F37" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381868</v>
       </c>
       <c r="G37" t="n">
         <v>50.57771670266141</v>
@@ -7096,49 +7096,49 @@
         <v>50.57771670266141</v>
       </c>
       <c r="K37" t="n">
-        <v>113.8385240588757</v>
+        <v>113.8385240588756</v>
       </c>
       <c r="L37" t="n">
-        <v>252.3958661451782</v>
+        <v>252.3958661451781</v>
       </c>
       <c r="M37" t="n">
-        <v>410.4026032557467</v>
+        <v>410.4026032557466</v>
       </c>
       <c r="N37" t="n">
-        <v>567.8867507895077</v>
+        <v>567.8867507895075</v>
       </c>
       <c r="O37" t="n">
-        <v>702.4302972633432</v>
+        <v>702.4302972633429</v>
       </c>
       <c r="P37" t="n">
-        <v>796.2713684181115</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="Q37" t="n">
-        <v>796.2713684181115</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="R37" t="n">
-        <v>796.2713684181115</v>
+        <v>791.8492322083869</v>
       </c>
       <c r="S37" t="n">
-        <v>754.7839309606804</v>
+        <v>582.6782849796242</v>
       </c>
       <c r="T37" t="n">
-        <v>690.4012904807886</v>
+        <v>518.2956444997324</v>
       </c>
       <c r="U37" t="n">
-        <v>570.9087667361107</v>
+        <v>398.8031207550544</v>
       </c>
       <c r="V37" t="n">
-        <v>477.8569720658649</v>
+        <v>305.7513260848086</v>
       </c>
       <c r="W37" t="n">
-        <v>359.3840803545955</v>
+        <v>187.2784343735392</v>
       </c>
       <c r="X37" t="n">
-        <v>295.8151260213029</v>
+        <v>123.7094800402465</v>
       </c>
       <c r="Y37" t="n">
-        <v>241.4634769849116</v>
+        <v>69.35783100385513</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1136.319482346042</v>
       </c>
       <c r="D38" t="n">
-        <v>931.179027344597</v>
+        <v>931.1790273445973</v>
       </c>
       <c r="E38" t="n">
-        <v>704.0768172220354</v>
+        <v>704.0768172220355</v>
       </c>
       <c r="F38" t="n">
         <v>457.6091363035373</v>
       </c>
       <c r="G38" t="n">
-        <v>209.7692730555743</v>
+        <v>209.7692730555744</v>
       </c>
       <c r="H38" t="n">
         <v>50.57771670266141</v>
@@ -7172,25 +7172,25 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J38" t="n">
-        <v>170.874459210527</v>
+        <v>170.8744592105269</v>
       </c>
       <c r="K38" t="n">
-        <v>483.4013103933589</v>
+        <v>483.4013103933587</v>
       </c>
       <c r="L38" t="n">
-        <v>921.0885116993891</v>
+        <v>689.0975235124249</v>
       </c>
       <c r="M38" t="n">
-        <v>1414.249514808301</v>
+        <v>1182.258526621336</v>
       </c>
       <c r="N38" t="n">
-        <v>1662.128561950265</v>
+        <v>1662.128561950267</v>
       </c>
       <c r="O38" t="n">
-        <v>2063.013239477518</v>
+        <v>2063.013239477519</v>
       </c>
       <c r="P38" t="n">
-        <v>2373.001577091166</v>
+        <v>2373.001577091167</v>
       </c>
       <c r="Q38" t="n">
         <v>2528.88583513307</v>
@@ -7202,13 +7202,13 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T38" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U38" t="n">
         <v>2381.281922052391</v>
       </c>
       <c r="V38" t="n">
-        <v>2211.986157719663</v>
+        <v>2211.986157719664</v>
       </c>
       <c r="W38" t="n">
         <v>2017.134737348596</v>
@@ -7217,7 +7217,7 @@
         <v>1802.788106641421</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.92976098859</v>
+        <v>1576.929760988591</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7245,7 @@
         <v>205.2017615113975</v>
       </c>
       <c r="H39" t="n">
-        <v>108.2641833752284</v>
+        <v>108.2641833752285</v>
       </c>
       <c r="I39" t="n">
         <v>50.57771670266141</v>
@@ -7254,16 +7254,16 @@
         <v>50.57771670266141</v>
       </c>
       <c r="K39" t="n">
-        <v>329.2340749280932</v>
+        <v>329.2340749280931</v>
       </c>
       <c r="L39" t="n">
-        <v>761.1654132524</v>
+        <v>761.1654132523998</v>
       </c>
       <c r="M39" t="n">
         <v>1323.345427090222</v>
       </c>
       <c r="N39" t="n">
-        <v>1507.369441704309</v>
+        <v>1913.799576082759</v>
       </c>
       <c r="O39" t="n">
         <v>1972.011401884186</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>206.5578652630441</v>
+        <v>53.48597209080684</v>
       </c>
       <c r="C40" t="n">
-        <v>204.6254054960559</v>
+        <v>51.55351232381868</v>
       </c>
       <c r="D40" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381868</v>
       </c>
       <c r="E40" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381868</v>
       </c>
       <c r="F40" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381868</v>
       </c>
       <c r="G40" t="n">
         <v>50.57771670266141</v>
@@ -7333,49 +7333,49 @@
         <v>50.57771670266141</v>
       </c>
       <c r="K40" t="n">
-        <v>113.8385240588757</v>
+        <v>113.8385240588756</v>
       </c>
       <c r="L40" t="n">
-        <v>252.3958661451782</v>
+        <v>252.3958661451781</v>
       </c>
       <c r="M40" t="n">
-        <v>410.4026032557467</v>
+        <v>410.4026032557466</v>
       </c>
       <c r="N40" t="n">
-        <v>567.8867507895077</v>
+        <v>567.8867507895075</v>
       </c>
       <c r="O40" t="n">
-        <v>702.4302972633432</v>
+        <v>702.4302972633429</v>
       </c>
       <c r="P40" t="n">
-        <v>796.2713684181115</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="Q40" t="n">
-        <v>796.2713684181115</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="R40" t="n">
-        <v>777.2376156092922</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="S40" t="n">
-        <v>735.7501781518612</v>
+        <v>754.7839309606802</v>
       </c>
       <c r="T40" t="n">
-        <v>671.3675376719693</v>
+        <v>690.4012904807884</v>
       </c>
       <c r="U40" t="n">
-        <v>551.8750139272914</v>
+        <v>570.9087667361104</v>
       </c>
       <c r="V40" t="n">
-        <v>458.8232192570456</v>
+        <v>310.173462294533</v>
       </c>
       <c r="W40" t="n">
-        <v>340.3503275457763</v>
+        <v>187.2784343735392</v>
       </c>
       <c r="X40" t="n">
-        <v>276.7813732124836</v>
+        <v>123.7094800402465</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4297241760923</v>
+        <v>69.35783100385513</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1136.319482346042</v>
       </c>
       <c r="D41" t="n">
-        <v>931.1790273445968</v>
+        <v>931.1790273445972</v>
       </c>
       <c r="E41" t="n">
-        <v>704.0768172220352</v>
+        <v>704.0768172220356</v>
       </c>
       <c r="F41" t="n">
-        <v>457.6091363035371</v>
+        <v>457.6091363035375</v>
       </c>
       <c r="G41" t="n">
         <v>209.7692730555743</v>
@@ -7409,25 +7409,25 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J41" t="n">
-        <v>50.57771670266141</v>
+        <v>170.8744592105269</v>
       </c>
       <c r="K41" t="n">
-        <v>363.1045678854933</v>
+        <v>251.4103222063949</v>
       </c>
       <c r="L41" t="n">
-        <v>800.7917691915234</v>
+        <v>689.0975235124249</v>
       </c>
       <c r="M41" t="n">
-        <v>1293.952772300435</v>
+        <v>1182.258526621336</v>
       </c>
       <c r="N41" t="n">
-        <v>1773.822807629366</v>
+        <v>1662.128561950267</v>
       </c>
       <c r="O41" t="n">
-        <v>2174.707485156618</v>
+        <v>2063.013239477519</v>
       </c>
       <c r="P41" t="n">
-        <v>2373.001577091166</v>
+        <v>2373.001577091167</v>
       </c>
       <c r="Q41" t="n">
         <v>2528.88583513307</v>
@@ -7482,7 +7482,7 @@
         <v>205.2017615113975</v>
       </c>
       <c r="H42" t="n">
-        <v>108.2641833752284</v>
+        <v>108.2641833752285</v>
       </c>
       <c r="I42" t="n">
         <v>50.57771670266141</v>
@@ -7491,22 +7491,22 @@
         <v>139.5979392287871</v>
       </c>
       <c r="K42" t="n">
-        <v>418.2542974542188</v>
+        <v>387.4459007295204</v>
       </c>
       <c r="L42" t="n">
-        <v>551.3726937067026</v>
+        <v>819.3772390538271</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.552707544525</v>
+        <v>1381.557252891649</v>
       </c>
       <c r="N42" t="n">
-        <v>1704.006856537062</v>
+        <v>1972.011401884186</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.648816716939</v>
+        <v>1972.011401884186</v>
       </c>
       <c r="P42" t="n">
-        <v>2528.88583513307</v>
+        <v>2332.248420300317</v>
       </c>
       <c r="Q42" t="n">
         <v>2528.88583513307</v>
@@ -7546,16 +7546,16 @@
         <v>53.48597209080678</v>
       </c>
       <c r="C43" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381865</v>
       </c>
       <c r="D43" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381865</v>
       </c>
       <c r="E43" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381865</v>
       </c>
       <c r="F43" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381865</v>
       </c>
       <c r="G43" t="n">
         <v>50.57771670266141</v>
@@ -7570,49 +7570,49 @@
         <v>50.57771670266141</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8385240588757</v>
+        <v>113.8385240588756</v>
       </c>
       <c r="L43" t="n">
-        <v>252.3958661451782</v>
+        <v>252.3958661451781</v>
       </c>
       <c r="M43" t="n">
-        <v>410.4026032557467</v>
+        <v>410.4026032557466</v>
       </c>
       <c r="N43" t="n">
-        <v>567.8867507895077</v>
+        <v>567.8867507895075</v>
       </c>
       <c r="O43" t="n">
-        <v>702.4302972633432</v>
+        <v>702.4302972633429</v>
       </c>
       <c r="P43" t="n">
-        <v>796.2713684181115</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="Q43" t="n">
-        <v>796.2713684181115</v>
+        <v>791.8492322083865</v>
       </c>
       <c r="R43" t="n">
-        <v>796.2713684181115</v>
+        <v>791.8492322083865</v>
       </c>
       <c r="S43" t="n">
-        <v>754.7839309606804</v>
+        <v>750.3617947509555</v>
       </c>
       <c r="T43" t="n">
-        <v>690.4012904807886</v>
+        <v>685.9791542710636</v>
       </c>
       <c r="U43" t="n">
-        <v>403.2252569647791</v>
+        <v>566.4866305263857</v>
       </c>
       <c r="V43" t="n">
-        <v>310.1734622945332</v>
+        <v>473.43483585614</v>
       </c>
       <c r="W43" t="n">
-        <v>187.278434373539</v>
+        <v>354.9619441448706</v>
       </c>
       <c r="X43" t="n">
-        <v>123.7094800402464</v>
+        <v>291.392989811578</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.35783100385503</v>
+        <v>69.35783100385504</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1350.569731241902</v>
+        <v>1350.569731241903</v>
       </c>
       <c r="C44" t="n">
-        <v>1136.319482346041</v>
+        <v>1136.319482346042</v>
       </c>
       <c r="D44" t="n">
-        <v>931.1790273445963</v>
+        <v>931.1790273445971</v>
       </c>
       <c r="E44" t="n">
-        <v>704.0768172220348</v>
+        <v>704.0768172220355</v>
       </c>
       <c r="F44" t="n">
-        <v>457.6091363035368</v>
+        <v>457.6091363035375</v>
       </c>
       <c r="G44" t="n">
         <v>209.7692730555743</v>
@@ -7646,25 +7646,25 @@
         <v>50.57771670266141</v>
       </c>
       <c r="J44" t="n">
-        <v>170.874459210527</v>
+        <v>50.57771670266141</v>
       </c>
       <c r="K44" t="n">
-        <v>483.4013103933589</v>
+        <v>251.4103222063949</v>
       </c>
       <c r="L44" t="n">
-        <v>921.0885116993891</v>
+        <v>689.0975235124249</v>
       </c>
       <c r="M44" t="n">
-        <v>1414.249514808301</v>
+        <v>1182.258526621336</v>
       </c>
       <c r="N44" t="n">
-        <v>1894.119550137231</v>
+        <v>1662.128561950267</v>
       </c>
       <c r="O44" t="n">
-        <v>2295.004227664484</v>
+        <v>2063.013239477519</v>
       </c>
       <c r="P44" t="n">
-        <v>2528.88583513307</v>
+        <v>2373.001577091167</v>
       </c>
       <c r="Q44" t="n">
         <v>2528.88583513307</v>
@@ -7676,19 +7676,19 @@
         <v>2522.571100270271</v>
       </c>
       <c r="T44" t="n">
-        <v>2468.437299484943</v>
+        <v>2468.437299484944</v>
       </c>
       <c r="U44" t="n">
-        <v>2381.28192205239</v>
+        <v>2381.281922052391</v>
       </c>
       <c r="V44" t="n">
         <v>2211.986157719663</v>
       </c>
       <c r="W44" t="n">
-        <v>2017.134737348595</v>
+        <v>2017.134737348596</v>
       </c>
       <c r="X44" t="n">
-        <v>1802.78810664142</v>
+        <v>1802.788106641421</v>
       </c>
       <c r="Y44" t="n">
         <v>1576.92976098859</v>
@@ -7704,22 +7704,22 @@
         <v>915.8837236260832</v>
       </c>
       <c r="C45" t="n">
-        <v>754.1800508670379</v>
+        <v>754.1800508670381</v>
       </c>
       <c r="D45" t="n">
-        <v>615.34141385725</v>
+        <v>615.3414138572502</v>
       </c>
       <c r="E45" t="n">
-        <v>468.3134039141213</v>
+        <v>468.3134039141214</v>
       </c>
       <c r="F45" t="n">
         <v>333.6196058639957</v>
       </c>
       <c r="G45" t="n">
-        <v>205.2017615113975</v>
+        <v>205.2017615113978</v>
       </c>
       <c r="H45" t="n">
-        <v>108.2641833752284</v>
+        <v>108.2641833752285</v>
       </c>
       <c r="I45" t="n">
         <v>50.57771670266141</v>
@@ -7731,19 +7731,19 @@
         <v>418.2542974542188</v>
       </c>
       <c r="L45" t="n">
-        <v>418.2542974542188</v>
+        <v>850.1856357785255</v>
       </c>
       <c r="M45" t="n">
-        <v>980.434311292041</v>
+        <v>1412.365649616348</v>
       </c>
       <c r="N45" t="n">
-        <v>1570.888460284578</v>
+        <v>1507.36944170431</v>
       </c>
       <c r="O45" t="n">
-        <v>1972.011401884186</v>
+        <v>1972.011401884187</v>
       </c>
       <c r="P45" t="n">
-        <v>2332.248420300317</v>
+        <v>2332.248420300318</v>
       </c>
       <c r="Q45" t="n">
         <v>2528.88583513307</v>
@@ -7752,7 +7752,7 @@
         <v>2488.389465416632</v>
       </c>
       <c r="S45" t="n">
-        <v>2341.360270394884</v>
+        <v>2341.360270394885</v>
       </c>
       <c r="T45" t="n">
         <v>2153.927326730009</v>
@@ -7761,7 +7761,7 @@
         <v>1935.452972198327</v>
       </c>
       <c r="V45" t="n">
-        <v>1707.05734964666</v>
+        <v>1707.057349646661</v>
       </c>
       <c r="W45" t="n">
         <v>1465.741480879971</v>
@@ -7783,16 +7783,16 @@
         <v>53.48597209080678</v>
       </c>
       <c r="C46" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381865</v>
       </c>
       <c r="D46" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381865</v>
       </c>
       <c r="E46" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381865</v>
       </c>
       <c r="F46" t="n">
-        <v>51.55351232381864</v>
+        <v>51.55351232381865</v>
       </c>
       <c r="G46" t="n">
         <v>50.57771670266141</v>
@@ -7807,49 +7807,49 @@
         <v>50.57771670266141</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8385240588757</v>
+        <v>113.8385240588756</v>
       </c>
       <c r="L46" t="n">
-        <v>252.3958661451782</v>
+        <v>252.3958661451781</v>
       </c>
       <c r="M46" t="n">
-        <v>410.4026032557467</v>
+        <v>410.4026032557466</v>
       </c>
       <c r="N46" t="n">
-        <v>567.8867507895077</v>
+        <v>567.8867507895075</v>
       </c>
       <c r="O46" t="n">
-        <v>702.4302972633432</v>
+        <v>702.4302972633429</v>
       </c>
       <c r="P46" t="n">
-        <v>796.2713684181115</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="Q46" t="n">
-        <v>796.2713684181115</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="R46" t="n">
-        <v>796.2713684181115</v>
+        <v>796.2713684181113</v>
       </c>
       <c r="S46" t="n">
-        <v>754.7839309606804</v>
+        <v>587.1004211893487</v>
       </c>
       <c r="T46" t="n">
-        <v>690.4012904807886</v>
+        <v>522.7177807094569</v>
       </c>
       <c r="U46" t="n">
-        <v>403.2252569647791</v>
+        <v>403.2252569647789</v>
       </c>
       <c r="V46" t="n">
-        <v>310.1734622945332</v>
+        <v>305.7513260848083</v>
       </c>
       <c r="W46" t="n">
-        <v>191.7005705832639</v>
+        <v>187.278434373539</v>
       </c>
       <c r="X46" t="n">
         <v>123.7094800402464</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.35783100385503</v>
+        <v>69.35783100385504</v>
       </c>
     </row>
   </sheetData>
@@ -8696,16 +8696,16 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>368.3944926891194</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>90.10621793727346</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>294.1797045325803</v>
+        <v>105.2187876798488</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9989292494752</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8775,19 +8775,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>595.3379318042952</v>
+        <v>595.3379318042953</v>
       </c>
       <c r="N12" t="n">
-        <v>26.72675433092553</v>
+        <v>36.63418080666562</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>315.204791054499</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>74.476822710389</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8933,13 +8933,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>460.2089774503356</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>568.5510017355793</v>
+        <v>83.83379433261911</v>
       </c>
       <c r="O14" t="n">
-        <v>90.10621793727351</v>
+        <v>450.6648092498878</v>
       </c>
       <c r="P14" t="n">
         <v>418.3383206229274</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99892924947522</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>37.55798303881593</v>
+        <v>595.3379318042953</v>
       </c>
       <c r="N15" t="n">
-        <v>485.7098949189856</v>
+        <v>26.7267543309257</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>84.38424918612921</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9164,16 +9164,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>377.0136099508322</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>512.0093725036832</v>
       </c>
       <c r="M17" t="n">
-        <v>584.3675935406823</v>
+        <v>86.22516615794343</v>
       </c>
       <c r="N17" t="n">
-        <v>83.83379433261894</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,19 +9240,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>73.99892924947522</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>383.2956407170777</v>
+        <v>293.3762240240222</v>
       </c>
       <c r="M18" t="n">
-        <v>595.3379318042952</v>
+        <v>595.3379318042953</v>
       </c>
       <c r="N18" t="n">
-        <v>26.72675433092557</v>
+        <v>26.7267543309257</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.8755004994941</v>
+        <v>98.31373860463987</v>
       </c>
       <c r="K20" t="n">
-        <v>105.7053482790475</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9410,7 +9410,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N20" t="n">
-        <v>568.5510017355793</v>
+        <v>160.9702290599939</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>118.5506413509024</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,13 +9486,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>406.6217069338198</v>
+        <v>595.3379318042953</v>
       </c>
       <c r="N21" t="n">
-        <v>26.72675433092557</v>
+        <v>307.3458427734577</v>
       </c>
       <c r="O21" t="n">
-        <v>512.0210150597484</v>
+        <v>42.68570174674163</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463987</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155856</v>
+        <v>540.3128239442954</v>
       </c>
       <c r="M23" t="n">
-        <v>539.9921671489996</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>83.83379433261894</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
-        <v>495.0402356415689</v>
+        <v>90.10621793727367</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
@@ -9714,22 +9714,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>73.99892924947522</v>
+        <v>73.99892924947527</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>45.79816775883342</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>595.337931804295</v>
+        <v>37.55798303881606</v>
       </c>
       <c r="N24" t="n">
-        <v>584.5067030964046</v>
+        <v>485.7098949189863</v>
       </c>
       <c r="O24" t="n">
-        <v>291.7385392525131</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
@@ -9963,16 +9963,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>122.6901806824016</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>50.12582305400822</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>136.5213442702971</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10191,16 +10191,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>279.6441832877986</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>45.79816775883349</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>122.6901806824016</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>122.6901806824016</v>
+        <v>122.6901806824027</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>142.9501147286838</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10595,7 +10595,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
-        <v>568.5510017355793</v>
+        <v>334.2166702335957</v>
       </c>
       <c r="O35" t="n">
         <v>495.0402356415689</v>
@@ -10604,7 +10604,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>118.5506413509024</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10662,22 +10662,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>73.99892924947527</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>450.9728562432861</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>194.8810936038399</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>42.6857017467415</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10826,13 +10826,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>308.625247413602</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>334.2166702335932</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>73.99892924947522</v>
+        <v>73.99892924947527</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>212.6095973754577</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>101.4855257885874</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.31373860463978</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>187.0547048405305</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11075,7 +11075,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>305.515850239998</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11139,10 +11139,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>312.6852154651417</v>
       </c>
       <c r="L42" t="n">
-        <v>180.2611942764939</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>42.68570174674163</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.47682271038896</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>98.31373860463987</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425141</v>
+        <v>308.5665659595866</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11312,10 +11312,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>341.4628356279154</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>118.5506413509024</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11379,16 +11379,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>45.79816775883342</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>122.6901806824031</v>
       </c>
       <c r="O45" t="n">
-        <v>447.8603902311937</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23258,13 +23258,13 @@
         <v>288.334965525335</v>
       </c>
       <c r="C11" t="n">
-        <v>119.1365966484768</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>267.3275865275447</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>289.0697240974503</v>
       </c>
       <c r="F11" t="n">
         <v>308.2415401854274</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>35.25830080687548</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.16062625453691</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>231.8413427655141</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.8382982724164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>283.9596544155946</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>91.62488888555995</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>309.6000006915978</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.16062625453694</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>150.5223597343418</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>231.8413427655141</v>
       </c>
       <c r="W14" t="n">
-        <v>257.141442243471</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.4417004762176</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>287.8382982724164</v>
       </c>
     </row>
     <row r="15">
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.462504043051945e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.672262990534364e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952740.7462284586</v>
+        <v>952740.7462284589</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>952740.7462284586</v>
+        <v>952740.7462284587</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440379.0631167002</v>
+        <v>440379.0631167001</v>
       </c>
       <c r="C2" t="n">
-        <v>440379.0631166999</v>
+        <v>440379.0631167</v>
       </c>
       <c r="D2" t="n">
-        <v>440379.0631166999</v>
+        <v>440379.0631167001</v>
       </c>
       <c r="E2" t="n">
         <v>384839.9089188657</v>
       </c>
       <c r="F2" t="n">
-        <v>384839.9089188656</v>
+        <v>384839.9089188657</v>
       </c>
       <c r="G2" t="n">
         <v>441383.8347841545</v>
@@ -26332,28 +26332,28 @@
         <v>441383.8347841545</v>
       </c>
       <c r="I2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841545</v>
       </c>
       <c r="J2" t="n">
         <v>441383.8347841543</v>
       </c>
       <c r="K2" t="n">
-        <v>441383.8347841544</v>
+        <v>441383.8347841545</v>
       </c>
       <c r="L2" t="n">
         <v>441383.8347841541</v>
       </c>
       <c r="M2" t="n">
-        <v>441383.8347841545</v>
+        <v>441383.8347841544</v>
       </c>
       <c r="N2" t="n">
-        <v>441383.8347841545</v>
+        <v>441383.8347841547</v>
       </c>
       <c r="O2" t="n">
-        <v>441383.8347841546</v>
+        <v>441383.8347841543</v>
       </c>
       <c r="P2" t="n">
-        <v>441383.8347841544</v>
+        <v>441383.8347841547</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>362828.575580861</v>
+        <v>362828.5755808608</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95920.71466492979</v>
+        <v>95920.71466492972</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>68784.12268014449</v>
       </c>
       <c r="M3" t="n">
-        <v>129612.7006801889</v>
+        <v>129612.700680189</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12630.38819785867</v>
+        <v>12630.38819785874</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>410681.9044354911</v>
       </c>
       <c r="E4" t="n">
-        <v>279027.0070681257</v>
+        <v>279027.0070681258</v>
       </c>
       <c r="F4" t="n">
         <v>279027.0070681258</v>
       </c>
       <c r="G4" t="n">
-        <v>334921.2684652063</v>
+        <v>334921.2684652064</v>
       </c>
       <c r="H4" t="n">
-        <v>334921.2684652063</v>
+        <v>334921.2684652064</v>
       </c>
       <c r="I4" t="n">
         <v>334921.2684652063</v>
       </c>
       <c r="J4" t="n">
-        <v>328644.644161486</v>
+        <v>328644.6441614861</v>
       </c>
       <c r="K4" t="n">
         <v>328644.644161486</v>
       </c>
       <c r="L4" t="n">
-        <v>328644.644161486</v>
+        <v>328644.6441614861</v>
       </c>
       <c r="M4" t="n">
-        <v>330141.7994638878</v>
+        <v>330141.7994638879</v>
       </c>
       <c r="N4" t="n">
-        <v>330141.7994638878</v>
+        <v>330141.7994638879</v>
       </c>
       <c r="O4" t="n">
-        <v>330141.7994638878</v>
+        <v>330141.7994638879</v>
       </c>
       <c r="P4" t="n">
-        <v>330141.7994638878</v>
+        <v>330141.7994638879</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>45585.60330960766</v>
+        <v>45585.60330960765</v>
       </c>
       <c r="F5" t="n">
-        <v>45585.60330960766</v>
+        <v>45585.60330960765</v>
       </c>
       <c r="G5" t="n">
         <v>52813.86882160399</v>
@@ -26488,16 +26488,16 @@
         <v>52813.86882160399</v>
       </c>
       <c r="I5" t="n">
-        <v>52813.86882160397</v>
+        <v>52813.86882160399</v>
       </c>
       <c r="J5" t="n">
-        <v>64940.34429047449</v>
+        <v>64940.34429047447</v>
       </c>
       <c r="K5" t="n">
-        <v>64940.34429047449</v>
+        <v>64940.34429047447</v>
       </c>
       <c r="L5" t="n">
-        <v>64940.34429047449</v>
+        <v>64940.34429047447</v>
       </c>
       <c r="M5" t="n">
         <v>55512.11660807204</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3930.441318790916</v>
+        <v>-3934.809891258168</v>
       </c>
       <c r="C6" t="n">
-        <v>-3930.441318791207</v>
+        <v>-3934.809891258342</v>
       </c>
       <c r="D6" t="n">
-        <v>-3930.441318791149</v>
+        <v>-3934.809891258168</v>
       </c>
       <c r="E6" t="n">
-        <v>-302601.2770397287</v>
+        <v>-302847.1201956645</v>
       </c>
       <c r="F6" t="n">
-        <v>60227.29854113219</v>
+        <v>59981.45538519627</v>
       </c>
       <c r="G6" t="n">
-        <v>-15135.42518280026</v>
+        <v>-15135.42518280032</v>
       </c>
       <c r="H6" t="n">
-        <v>53648.69749734424</v>
+        <v>53648.69749734418</v>
       </c>
       <c r="I6" t="n">
-        <v>53648.69749734443</v>
+        <v>53648.69749734418</v>
       </c>
       <c r="J6" t="n">
-        <v>-48121.86833273596</v>
+        <v>-48121.868332736</v>
       </c>
       <c r="K6" t="n">
-        <v>47798.84633219399</v>
+        <v>47798.84633219401</v>
       </c>
       <c r="L6" t="n">
-        <v>-20985.27634795086</v>
+        <v>-20985.2763479509</v>
       </c>
       <c r="M6" t="n">
-        <v>-73882.7819679942</v>
+        <v>-73882.7819679945</v>
       </c>
       <c r="N6" t="n">
-        <v>55729.91871219475</v>
+        <v>55729.9187121947</v>
       </c>
       <c r="O6" t="n">
-        <v>43099.53051433611</v>
+        <v>43099.53051433558</v>
       </c>
       <c r="P6" t="n">
-        <v>55729.91871219464</v>
+        <v>55729.91871219469</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>187.7482919476846</v>
       </c>
       <c r="J2" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K2" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L2" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M2" t="n">
         <v>166.0066746736182</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.983338573989</v>
+        <v>142.9833385739888</v>
       </c>
       <c r="F3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="G3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="H3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="I3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="J3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="K3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739888</v>
       </c>
       <c r="L3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="M3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="N3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="O3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
       <c r="P3" t="n">
-        <v>142.9833385739889</v>
+        <v>142.9833385739887</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>557.7799487654793</v>
       </c>
       <c r="I4" t="n">
-        <v>557.779948765479</v>
+        <v>557.7799487654793</v>
       </c>
       <c r="J4" t="n">
-        <v>876.1145043718416</v>
+        <v>876.1145043718413</v>
       </c>
       <c r="K4" t="n">
-        <v>876.1145043718416</v>
+        <v>876.1145043718413</v>
       </c>
       <c r="L4" t="n">
-        <v>876.1145043718416</v>
+        <v>876.1145043718413</v>
       </c>
       <c r="M4" t="n">
-        <v>632.2214587832675</v>
+        <v>632.2214587832676</v>
       </c>
       <c r="N4" t="n">
-        <v>632.2214587832675</v>
+        <v>632.2214587832676</v>
       </c>
       <c r="O4" t="n">
-        <v>632.2214587832675</v>
+        <v>632.2214587832676</v>
       </c>
       <c r="P4" t="n">
-        <v>632.2214587832675</v>
+        <v>632.2214587832676</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.78798524732333</v>
+        <v>15.78798524732339</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>85.98015335018061</v>
       </c>
       <c r="M2" t="n">
-        <v>64.2385360761143</v>
+        <v>64.23853607611422</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732333</v>
+        <v>15.78798524732342</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>142.983338573989</v>
+        <v>142.9833385739888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>318.3345556063625</v>
+        <v>318.3345556063621</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.8869031769052</v>
+        <v>313.8869031769055</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.78798524732333</v>
+        <v>15.78798524732339</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>53.6246588483581</v>
+        <v>53.62465884835816</v>
       </c>
       <c r="S11" t="n">
         <v>101.768138597504</v>
@@ -28166,11 +28166,11 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>101.768138597504</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
@@ -28178,16 +28178,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>28.24673287618332</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>101.768138597504</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>85.3563348820246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>53.62465884835812</v>
+        <v>53.62465884835817</v>
       </c>
       <c r="S14" t="n">
         <v>101.768138597504</v>
@@ -28409,16 +28409,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>85.35633488202456</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>101.768138597504</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>85.3563348820245</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28472,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>101.768138597504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28506,7 +28506,7 @@
         <v>101.768138597504</v>
       </c>
       <c r="J16" t="n">
-        <v>101.768138597504</v>
+        <v>101.7681385975048</v>
       </c>
       <c r="K16" t="n">
         <v>101.768138597504</v>
@@ -28527,7 +28527,7 @@
         <v>101.768138597504</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.7681385975041</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R16" t="n">
         <v>101.768138597504</v>
@@ -28582,7 +28582,7 @@
         <v>187.7482919476846</v>
       </c>
       <c r="I17" t="n">
-        <v>148.9287648520408</v>
+        <v>148.9287648520409</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>53.62465884835812</v>
+        <v>53.62465884835817</v>
       </c>
       <c r="S17" t="n">
         <v>172.2582621877897</v>
@@ -28643,22 +28643,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>101.1443201293482</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>59.57754965260077</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.96820235480739</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>4.00976436261584</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
         <v>166.9727123385639</v>
@@ -28743,7 +28743,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>41.22746252636392</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>16.56148380817556</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>136.4331932014877</v>
       </c>
       <c r="S19" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>187.7482919476846</v>
@@ -28779,7 +28779,7 @@
         <v>187.7482919476846</v>
       </c>
       <c r="V19" t="n">
-        <v>187.7482919476846</v>
+        <v>34.32836029747745</v>
       </c>
       <c r="W19" t="n">
         <v>187.7482919476846</v>
@@ -28819,7 +28819,7 @@
         <v>187.7482919476846</v>
       </c>
       <c r="I20" t="n">
-        <v>148.9287648520408</v>
+        <v>148.9287648520409</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>53.62465884835812</v>
+        <v>53.62465884835817</v>
       </c>
       <c r="S20" t="n">
         <v>172.2582621877897</v>
@@ -28886,7 +28886,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>135.8148077163838</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.96820235480739</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.5589030715301</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>143.3337090055026</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
@@ -28977,10 +28977,10 @@
         <v>155.4864973730212</v>
       </c>
       <c r="I22" t="n">
-        <v>133.128340412463</v>
+        <v>135.0070978221555</v>
       </c>
       <c r="J22" t="n">
-        <v>41.22746252636389</v>
+        <v>41.22746252636392</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.56148380817552</v>
+        <v>16.56148380817556</v>
       </c>
       <c r="R22" t="n">
         <v>136.4331932014877</v>
@@ -29010,10 +29010,10 @@
         <v>187.7482919476846</v>
       </c>
       <c r="T22" t="n">
+        <v>34.32836029747745</v>
+      </c>
+      <c r="U22" t="n">
         <v>187.7482919476846</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>187.7482919476846</v>
@@ -29025,7 +29025,7 @@
         <v>187.7482919476846</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>187.7482919476846</v>
       </c>
       <c r="I23" t="n">
-        <v>148.9287648520408</v>
+        <v>148.9287648520409</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,10 +29083,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>53.62465884835812</v>
+        <v>53.62465884835817</v>
       </c>
       <c r="S23" t="n">
-        <v>172.2582621877897</v>
+        <v>172.2582621877888</v>
       </c>
       <c r="T23" t="n">
         <v>187.7482919476846</v>
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>104.649344162119</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.1336659090721</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>57.10960200584138</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29174,7 +29174,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>101.144320129349</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29199,10 +29199,10 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6101666866018</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -29217,7 +29217,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J25" t="n">
-        <v>41.22746252636389</v>
+        <v>41.22746252636392</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.56148380817552</v>
+        <v>16.56148380817556</v>
       </c>
       <c r="R25" t="n">
         <v>136.4331932014877</v>
@@ -29250,16 +29250,16 @@
         <v>187.7482919476846</v>
       </c>
       <c r="U25" t="n">
-        <v>187.7482919476846</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>187.7482919476846</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>187.7482919476846</v>
       </c>
       <c r="X25" t="n">
-        <v>187.7482919476846</v>
+        <v>34.32836029747736</v>
       </c>
       <c r="Y25" t="n">
         <v>187.7482919476846</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M26" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>101.7681385975039</v>
+        <v>72.63127504991593</v>
       </c>
       <c r="O26" t="n">
-        <v>72.63127504991564</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y26" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975037</v>
       </c>
       <c r="L28" t="n">
-        <v>101.7681385975046</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y28" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K29" t="n">
-        <v>101.7681385975039</v>
+        <v>19.00661620155802</v>
       </c>
       <c r="L29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M29" t="n">
-        <v>72.63127504991519</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R29" t="n">
-        <v>101.7681385975039</v>
+        <v>53.62465884835815</v>
       </c>
       <c r="S29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y29" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J32" t="n">
-        <v>101.7681385975039</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N32" t="n">
-        <v>101.7681385975039</v>
+        <v>72.63127504991616</v>
       </c>
       <c r="O32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Q32" t="n">
-        <v>72.6312750499155</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y32" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="C34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="D34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="E34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="F34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="G34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="H34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="I34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="J34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="K34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="L34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="M34" t="n">
-        <v>101.7681385975046</v>
+        <v>101.768138597504</v>
       </c>
       <c r="N34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="O34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.7681385975036</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="R34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="S34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="T34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="U34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="V34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="W34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="X34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
       <c r="Y34" t="n">
-        <v>101.7681385975039</v>
+        <v>101.768138597504</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>166.0066746736182</v>
       </c>
       <c r="I35" t="n">
-        <v>148.9287648520408</v>
+        <v>148.9287648520409</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>53.62465884835812</v>
+        <v>53.62465884835817</v>
       </c>
       <c r="S35" t="n">
         <v>166.0066746736182</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.577933576853</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="C37" t="n">
         <v>166.0066746736182</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.0066746736182</v>
@@ -30165,7 +30165,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J37" t="n">
-        <v>41.22746252636389</v>
+        <v>41.22746252636392</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,13 +30186,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.56148380817552</v>
+        <v>16.56148380817556</v>
       </c>
       <c r="R37" t="n">
-        <v>136.4331932014877</v>
+        <v>132.0552783538606</v>
       </c>
       <c r="S37" t="n">
-        <v>166.0066746736182</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>166.0066746736182</v>
@@ -30241,7 +30241,7 @@
         <v>166.0066746736182</v>
       </c>
       <c r="I38" t="n">
-        <v>148.9287648520408</v>
+        <v>148.9287648520409</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>53.62465884835812</v>
+        <v>53.62465884835817</v>
       </c>
       <c r="S38" t="n">
         <v>166.0066746736182</v>
@@ -30384,7 +30384,7 @@
         <v>166.0066746736182</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30402,7 +30402,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J40" t="n">
-        <v>41.22746252636389</v>
+        <v>41.22746252636392</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.56148380817552</v>
+        <v>16.56148380817556</v>
       </c>
       <c r="R40" t="n">
-        <v>117.5897779207566</v>
+        <v>136.4331932014877</v>
       </c>
       <c r="S40" t="n">
         <v>166.0066746736182</v>
@@ -30438,10 +30438,10 @@
         <v>166.0066746736182</v>
       </c>
       <c r="V40" t="n">
-        <v>166.0066746736182</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>166.0066746736182</v>
+        <v>161.628759825991</v>
       </c>
       <c r="X40" t="n">
         <v>166.0066746736182</v>
@@ -30478,7 +30478,7 @@
         <v>166.0066746736182</v>
       </c>
       <c r="I41" t="n">
-        <v>148.9287648520408</v>
+        <v>148.9287648520409</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>53.62465884835812</v>
+        <v>53.62465884835817</v>
       </c>
       <c r="S41" t="n">
         <v>166.0066746736182</v>
@@ -30639,7 +30639,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J43" t="n">
-        <v>41.22746252636389</v>
+        <v>41.22746252636392</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.56148380817552</v>
+        <v>12.18356896054808</v>
       </c>
       <c r="R43" t="n">
         <v>136.4331932014877</v>
@@ -30672,19 +30672,19 @@
         <v>166.0066746736182</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V43" t="n">
         <v>166.0066746736182</v>
       </c>
       <c r="W43" t="n">
-        <v>161.6287598259906</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="X43" t="n">
         <v>166.0066746736182</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.0066746736182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>166.0066746736182</v>
       </c>
       <c r="I44" t="n">
-        <v>148.9287648520408</v>
+        <v>148.9287648520409</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>53.62465884835812</v>
+        <v>53.62465884835817</v>
       </c>
       <c r="S44" t="n">
         <v>166.0066746736182</v>
@@ -30876,7 +30876,7 @@
         <v>135.0070978221555</v>
       </c>
       <c r="J46" t="n">
-        <v>41.22746252636389</v>
+        <v>41.22746252636392</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,28 +30897,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.56148380817552</v>
+        <v>16.56148380817556</v>
       </c>
       <c r="R46" t="n">
         <v>136.4331932014877</v>
       </c>
       <c r="S46" t="n">
-        <v>166.0066746736182</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>166.0066746736182</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="V46" t="n">
-        <v>166.0066746736182</v>
+        <v>161.6287598259908</v>
       </c>
       <c r="W46" t="n">
         <v>166.0066746736182</v>
       </c>
       <c r="X46" t="n">
-        <v>161.6287598259906</v>
+        <v>166.0066746736182</v>
       </c>
       <c r="Y46" t="n">
         <v>166.0066746736182</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5748073912522167</v>
+        <v>0.5748073912522157</v>
       </c>
       <c r="H11" t="n">
-        <v>5.886746195661765</v>
+        <v>5.886746195661756</v>
       </c>
       <c r="I11" t="n">
-        <v>22.1602619512511</v>
+        <v>22.16026195125107</v>
       </c>
       <c r="J11" t="n">
-        <v>48.78605882329288</v>
+        <v>48.78605882329278</v>
       </c>
       <c r="K11" t="n">
-        <v>73.11765569499921</v>
+        <v>73.11765569499909</v>
       </c>
       <c r="L11" t="n">
-        <v>90.70891739503426</v>
+        <v>90.70891739503411</v>
       </c>
       <c r="M11" t="n">
-        <v>100.9311483392159</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N11" t="n">
-        <v>102.5643198396112</v>
+        <v>102.5643198396111</v>
       </c>
       <c r="O11" t="n">
-        <v>96.848578842847</v>
+        <v>96.84857884284683</v>
       </c>
       <c r="P11" t="n">
-        <v>82.6580213713079</v>
+        <v>82.65802137130774</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.07273167208786</v>
+        <v>62.07273167208775</v>
       </c>
       <c r="R11" t="n">
-        <v>36.10724479074709</v>
+        <v>36.10724479074702</v>
       </c>
       <c r="S11" t="n">
-        <v>13.0984234281599</v>
+        <v>13.09842342815988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.51621935520658</v>
+        <v>2.516219355206575</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04598459130017733</v>
+        <v>0.04598459130017724</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3075490678761273</v>
+        <v>0.3075490678761268</v>
       </c>
       <c r="H12" t="n">
-        <v>2.970276523961546</v>
+        <v>2.970276523961541</v>
       </c>
       <c r="I12" t="n">
-        <v>10.58886045099825</v>
+        <v>10.58886045099823</v>
       </c>
       <c r="J12" t="n">
-        <v>29.05664241719149</v>
+        <v>29.05664241719144</v>
       </c>
       <c r="K12" t="n">
-        <v>49.66242996489202</v>
+        <v>49.66242996489193</v>
       </c>
       <c r="L12" t="n">
-        <v>66.77726581231441</v>
+        <v>66.77726581231428</v>
       </c>
       <c r="M12" t="n">
-        <v>77.925919522824</v>
+        <v>77.92591952282386</v>
       </c>
       <c r="N12" t="n">
-        <v>79.98838673678279</v>
+        <v>79.98838673678264</v>
       </c>
       <c r="O12" t="n">
-        <v>73.17374686436965</v>
+        <v>73.17374686436951</v>
       </c>
       <c r="P12" t="n">
-        <v>58.72838297013523</v>
+        <v>58.72838297013512</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.25836873450356</v>
+        <v>39.25836873450348</v>
       </c>
       <c r="R12" t="n">
-        <v>19.09502019673009</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S12" t="n">
-        <v>5.71258904585701</v>
+        <v>5.712589045857</v>
       </c>
       <c r="T12" t="n">
-        <v>1.239638567448074</v>
+        <v>1.239638567448072</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02023349130763996</v>
+        <v>0.02023349130763993</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2578388072645703</v>
+        <v>0.2578388072645699</v>
       </c>
       <c r="H13" t="n">
-        <v>2.292421395497727</v>
+        <v>2.292421395497723</v>
       </c>
       <c r="I13" t="n">
-        <v>7.753916131192717</v>
+        <v>7.753916131192703</v>
       </c>
       <c r="J13" t="n">
-        <v>18.22920367360512</v>
+        <v>18.22920367360509</v>
       </c>
       <c r="K13" t="n">
-        <v>29.95618142582916</v>
+        <v>29.95618142582911</v>
       </c>
       <c r="L13" t="n">
-        <v>38.33359867277076</v>
+        <v>38.33359867277069</v>
       </c>
       <c r="M13" t="n">
-        <v>40.41740503329987</v>
+        <v>40.41740503329979</v>
       </c>
       <c r="N13" t="n">
-        <v>39.45636947895014</v>
+        <v>39.45636947895007</v>
       </c>
       <c r="O13" t="n">
-        <v>36.44434341226855</v>
+        <v>36.44434341226849</v>
       </c>
       <c r="P13" t="n">
-        <v>31.18443174407129</v>
+        <v>31.18443174407124</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.59048412467234</v>
+        <v>21.5904841246723</v>
       </c>
       <c r="R13" t="n">
-        <v>11.59337037027786</v>
+        <v>11.59337037027784</v>
       </c>
       <c r="S13" t="n">
-        <v>4.493427213874374</v>
+        <v>4.493427213874366</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01406393494170385</v>
+        <v>0.01406393494170383</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H14" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I14" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J14" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K14" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L14" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M14" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N14" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O14" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P14" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R14" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S14" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T14" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H15" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I15" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J15" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K15" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L15" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M15" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N15" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O15" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P15" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R15" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S15" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T15" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H16" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I16" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J16" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K16" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L16" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M16" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N16" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O16" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P16" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R16" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S16" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T16" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H17" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I17" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J17" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K17" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L17" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M17" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N17" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O17" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P17" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R17" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S17" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T17" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H18" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I18" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J18" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K18" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L18" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M18" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N18" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O18" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P18" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R18" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S18" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T18" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H19" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I19" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J19" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K19" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L19" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M19" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N19" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O19" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P19" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R19" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S19" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H20" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I20" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J20" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K20" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L20" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M20" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N20" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O20" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P20" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R20" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S20" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T20" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H21" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I21" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J21" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K21" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L21" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M21" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N21" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O21" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P21" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R21" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S21" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T21" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H22" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I22" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J22" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K22" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L22" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M22" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N22" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O22" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P22" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R22" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S22" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T22" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H23" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I23" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J23" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K23" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L23" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M23" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N23" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O23" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P23" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R23" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S23" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T23" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H24" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I24" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J24" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K24" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L24" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M24" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N24" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O24" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P24" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R24" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S24" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T24" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H25" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I25" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J25" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K25" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L25" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M25" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N25" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O25" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P25" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R25" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S25" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H26" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I26" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J26" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K26" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L26" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M26" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N26" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O26" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P26" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R26" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S26" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T26" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H27" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I27" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J27" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K27" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L27" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M27" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N27" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O27" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P27" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R27" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S27" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T27" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H28" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I28" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J28" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K28" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L28" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M28" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N28" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O28" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P28" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R28" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S28" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T28" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522158</v>
       </c>
       <c r="H29" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661757</v>
       </c>
       <c r="I29" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125107</v>
       </c>
       <c r="J29" t="n">
-        <v>48.78605882329284</v>
+        <v>48.7860588232928</v>
       </c>
       <c r="K29" t="n">
-        <v>73.11765569499917</v>
+        <v>73.1176556949991</v>
       </c>
       <c r="L29" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503412</v>
       </c>
       <c r="M29" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N29" t="n">
-        <v>102.5643198396112</v>
+        <v>102.5643198396111</v>
       </c>
       <c r="O29" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284685</v>
       </c>
       <c r="P29" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130775</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208776</v>
       </c>
       <c r="R29" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074703</v>
       </c>
       <c r="S29" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815988</v>
       </c>
       <c r="T29" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206576</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017726</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761268</v>
       </c>
       <c r="H30" t="n">
-        <v>2.970276523961544</v>
+        <v>2.970276523961541</v>
       </c>
       <c r="I30" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099823</v>
       </c>
       <c r="J30" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719144</v>
       </c>
       <c r="K30" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489194</v>
       </c>
       <c r="L30" t="n">
-        <v>66.77726581231437</v>
+        <v>66.7772658123143</v>
       </c>
       <c r="M30" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282388</v>
       </c>
       <c r="N30" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678266</v>
       </c>
       <c r="O30" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436952</v>
       </c>
       <c r="P30" t="n">
-        <v>58.72838297013519</v>
+        <v>58.72838297013514</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450349</v>
       </c>
       <c r="R30" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673006</v>
       </c>
       <c r="S30" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045857001</v>
       </c>
       <c r="T30" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448072</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763993</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645699</v>
       </c>
       <c r="H31" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497724</v>
       </c>
       <c r="I31" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192705</v>
       </c>
       <c r="J31" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360509</v>
       </c>
       <c r="K31" t="n">
-        <v>29.95618142582915</v>
+        <v>29.95618142582912</v>
       </c>
       <c r="L31" t="n">
-        <v>38.33359867277074</v>
+        <v>38.3335986727707</v>
       </c>
       <c r="M31" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329981</v>
       </c>
       <c r="N31" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895008</v>
       </c>
       <c r="O31" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226849</v>
       </c>
       <c r="P31" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407124</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467231</v>
       </c>
       <c r="R31" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027784</v>
       </c>
       <c r="S31" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874367</v>
       </c>
       <c r="T31" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766799</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170383</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H32" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I32" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J32" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K32" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L32" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M32" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N32" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O32" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P32" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R32" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S32" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T32" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H33" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I33" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J33" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K33" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L33" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M33" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N33" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O33" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P33" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R33" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S33" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T33" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H34" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I34" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J34" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K34" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L34" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M34" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N34" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O34" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P34" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R34" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S34" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T34" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H35" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I35" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J35" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K35" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L35" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M35" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N35" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O35" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P35" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R35" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S35" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T35" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H36" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I36" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J36" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K36" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L36" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M36" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N36" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O36" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P36" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R36" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S36" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T36" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H37" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I37" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J37" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K37" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L37" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M37" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N37" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O37" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P37" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R37" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S37" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T37" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H38" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I38" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J38" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K38" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L38" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M38" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N38" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O38" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P38" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R38" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S38" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T38" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H39" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I39" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J39" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K39" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L39" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M39" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N39" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O39" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P39" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R39" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S39" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T39" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H40" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I40" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J40" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K40" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L40" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M40" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N40" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O40" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P40" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R40" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S40" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T40" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H41" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I41" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J41" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K41" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L41" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M41" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N41" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O41" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P41" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R41" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S41" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T41" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H42" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I42" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J42" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K42" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L42" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M42" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N42" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O42" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P42" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R42" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S42" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T42" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H43" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I43" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J43" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K43" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L43" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M43" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N43" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O43" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P43" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R43" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S43" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T43" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5748073912522164</v>
+        <v>0.5748073912522155</v>
       </c>
       <c r="H44" t="n">
-        <v>5.886746195661763</v>
+        <v>5.886746195661753</v>
       </c>
       <c r="I44" t="n">
-        <v>22.16026195125109</v>
+        <v>22.16026195125106</v>
       </c>
       <c r="J44" t="n">
-        <v>48.78605882329284</v>
+        <v>48.78605882329277</v>
       </c>
       <c r="K44" t="n">
-        <v>73.11765569499917</v>
+        <v>73.11765569499906</v>
       </c>
       <c r="L44" t="n">
-        <v>90.70891739503421</v>
+        <v>90.70891739503406</v>
       </c>
       <c r="M44" t="n">
-        <v>100.9311483392158</v>
+        <v>100.9311483392157</v>
       </c>
       <c r="N44" t="n">
-        <v>102.5643198396112</v>
+        <v>102.564319839611</v>
       </c>
       <c r="O44" t="n">
-        <v>96.84857884284695</v>
+        <v>96.84857884284679</v>
       </c>
       <c r="P44" t="n">
-        <v>82.65802137130784</v>
+        <v>82.65802137130771</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.07273167208783</v>
+        <v>62.07273167208773</v>
       </c>
       <c r="R44" t="n">
-        <v>36.10724479074707</v>
+        <v>36.10724479074701</v>
       </c>
       <c r="S44" t="n">
-        <v>13.09842342815989</v>
+        <v>13.09842342815987</v>
       </c>
       <c r="T44" t="n">
-        <v>2.516219355206578</v>
+        <v>2.516219355206574</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0459845913001773</v>
+        <v>0.04598459130017723</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3075490678761271</v>
+        <v>0.3075490678761267</v>
       </c>
       <c r="H45" t="n">
-        <v>2.970276523961544</v>
+        <v>2.97027652396154</v>
       </c>
       <c r="I45" t="n">
-        <v>10.58886045099824</v>
+        <v>10.58886045099822</v>
       </c>
       <c r="J45" t="n">
-        <v>29.05664241719147</v>
+        <v>29.05664241719143</v>
       </c>
       <c r="K45" t="n">
-        <v>49.66242996489199</v>
+        <v>49.66242996489191</v>
       </c>
       <c r="L45" t="n">
-        <v>66.77726581231437</v>
+        <v>66.77726581231425</v>
       </c>
       <c r="M45" t="n">
-        <v>77.92591952282396</v>
+        <v>77.92591952282383</v>
       </c>
       <c r="N45" t="n">
-        <v>79.98838673678274</v>
+        <v>79.98838673678262</v>
       </c>
       <c r="O45" t="n">
-        <v>73.1737468643696</v>
+        <v>73.17374686436948</v>
       </c>
       <c r="P45" t="n">
-        <v>58.72838297013519</v>
+        <v>58.7283829701351</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.25836873450353</v>
+        <v>39.25836873450347</v>
       </c>
       <c r="R45" t="n">
-        <v>19.09502019673008</v>
+        <v>19.09502019673005</v>
       </c>
       <c r="S45" t="n">
-        <v>5.712589045857007</v>
+        <v>5.712589045856998</v>
       </c>
       <c r="T45" t="n">
-        <v>1.239638567448073</v>
+        <v>1.239638567448071</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02023349130763995</v>
+        <v>0.02023349130763992</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2578388072645701</v>
+        <v>0.2578388072645698</v>
       </c>
       <c r="H46" t="n">
-        <v>2.292421395497726</v>
+        <v>2.292421395497722</v>
       </c>
       <c r="I46" t="n">
-        <v>7.753916131192713</v>
+        <v>7.753916131192701</v>
       </c>
       <c r="J46" t="n">
-        <v>18.22920367360511</v>
+        <v>18.22920367360508</v>
       </c>
       <c r="K46" t="n">
-        <v>29.95618142582915</v>
+        <v>29.9561814258291</v>
       </c>
       <c r="L46" t="n">
-        <v>38.33359867277074</v>
+        <v>38.33359867277068</v>
       </c>
       <c r="M46" t="n">
-        <v>40.41740503329984</v>
+        <v>40.41740503329978</v>
       </c>
       <c r="N46" t="n">
-        <v>39.45636947895012</v>
+        <v>39.45636947895005</v>
       </c>
       <c r="O46" t="n">
-        <v>36.44434341226853</v>
+        <v>36.44434341226847</v>
       </c>
       <c r="P46" t="n">
-        <v>31.18443174407128</v>
+        <v>31.18443174407123</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.59048412467233</v>
+        <v>21.59048412467229</v>
       </c>
       <c r="R46" t="n">
-        <v>11.59337037027785</v>
+        <v>11.59337037027783</v>
       </c>
       <c r="S46" t="n">
-        <v>4.493427213874371</v>
+        <v>4.493427213874364</v>
       </c>
       <c r="T46" t="n">
-        <v>1.1016749037668</v>
+        <v>1.101674903766798</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01406393494170384</v>
+        <v>0.01406393494170382</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>121.5118611190562</v>
+        <v>121.5118611190561</v>
       </c>
       <c r="K11" t="n">
-        <v>315.6836880634667</v>
+        <v>315.6836880634665</v>
       </c>
       <c r="L11" t="n">
-        <v>442.1082841475052</v>
+        <v>442.1082841475051</v>
       </c>
       <c r="M11" t="n">
-        <v>498.142427382739</v>
+        <v>282.169326531176</v>
       </c>
       <c r="N11" t="n">
-        <v>484.7172074029605</v>
+        <v>484.7172074029603</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>404.9340177042953</v>
       </c>
       <c r="P11" t="n">
-        <v>188.9609168527317</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>157.4588465069737</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>89.91941669305623</v>
       </c>
       <c r="K12" t="n">
         <v>281.4710689145775</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2942811356635</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M12" t="n">
         <v>557.7799487654793</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>9.907426475739948</v>
       </c>
       <c r="O12" t="n">
-        <v>469.3353133130069</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P12" t="n">
-        <v>265.0789680004909</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.6236513462149</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.54067607114008</v>
+        <v>60.54067607114006</v>
       </c>
       <c r="K13" t="n">
         <v>165.6679440078214</v>
       </c>
       <c r="L13" t="n">
-        <v>241.7250497957894</v>
+        <v>241.7250497957893</v>
       </c>
       <c r="M13" t="n">
         <v>261.370903355654</v>
@@ -35583,10 +35583,10 @@
         <v>237.6707107932974</v>
       </c>
       <c r="P13" t="n">
-        <v>196.5570993598963</v>
+        <v>196.5570993598962</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.20665478932845</v>
+        <v>85.20665478932841</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>121.5118611190561</v>
       </c>
       <c r="K14" t="n">
-        <v>315.6836880634666</v>
+        <v>315.6836880634665</v>
       </c>
       <c r="L14" t="n">
-        <v>442.1082841475052</v>
+        <v>442.108284147505</v>
       </c>
       <c r="M14" t="n">
-        <v>373.9838112923923</v>
+        <v>498.1424273827388</v>
       </c>
       <c r="N14" t="n">
-        <v>484.7172074029604</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>360.5585913126141</v>
       </c>
       <c r="P14" t="n">
-        <v>313.1195329430788</v>
+        <v>313.1195329430786</v>
       </c>
       <c r="Q14" t="n">
-        <v>157.4588465069737</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>89.91941669305622</v>
       </c>
       <c r="K15" t="n">
         <v>281.4710689145775</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2942811356635</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>557.7799487654793</v>
       </c>
       <c r="N15" t="n">
-        <v>458.9831405880601</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>469.3353133130068</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P15" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.6236513462149</v>
+        <v>9.907426475740177</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.54067607114007</v>
+        <v>60.54067607114087</v>
       </c>
       <c r="K16" t="n">
         <v>165.6679440078214</v>
@@ -35820,10 +35820,10 @@
         <v>237.6707107932974</v>
       </c>
       <c r="P16" t="n">
-        <v>196.5570993598963</v>
+        <v>196.5570993598962</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.20665478932858</v>
+        <v>85.20665478932841</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>121.5118611190561</v>
       </c>
       <c r="K17" t="n">
-        <v>271.3082616717847</v>
+        <v>315.6836880634665</v>
       </c>
       <c r="L17" t="n">
-        <v>442.1082841475052</v>
+        <v>411.1580777356026</v>
       </c>
       <c r="M17" t="n">
-        <v>498.142427382739</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>484.7172074029602</v>
       </c>
       <c r="O17" t="n">
-        <v>404.9340177042954</v>
+        <v>404.9340177042952</v>
       </c>
       <c r="P17" t="n">
-        <v>313.1195329430788</v>
+        <v>313.1195329430786</v>
       </c>
       <c r="Q17" t="n">
-        <v>157.4588465069737</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>89.91941669305622</v>
       </c>
       <c r="K18" t="n">
         <v>281.4710689145775</v>
       </c>
       <c r="L18" t="n">
-        <v>337.4974729582443</v>
+        <v>247.5780562651886</v>
       </c>
       <c r="M18" t="n">
         <v>557.7799487654793</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>469.3353133130068</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P18" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.6236513462149</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>63.89980541031744</v>
+        <v>63.8998054103174</v>
       </c>
       <c r="L19" t="n">
-        <v>139.9569111982854</v>
+        <v>139.9569111982853</v>
       </c>
       <c r="M19" t="n">
-        <v>159.6027647581501</v>
+        <v>159.60276475815</v>
       </c>
       <c r="N19" t="n">
-        <v>159.0748964987485</v>
+        <v>159.0748964987484</v>
       </c>
       <c r="O19" t="n">
-        <v>135.9025721957935</v>
+        <v>135.9025721957934</v>
       </c>
       <c r="P19" t="n">
-        <v>94.78896076239228</v>
+        <v>94.78896076239224</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>65.56176189485437</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>315.6836880634665</v>
       </c>
       <c r="L20" t="n">
-        <v>442.1082841475052</v>
+        <v>442.108284147505</v>
       </c>
       <c r="M20" t="n">
-        <v>498.142427382739</v>
+        <v>498.1424273827388</v>
       </c>
       <c r="N20" t="n">
-        <v>484.7172074029604</v>
+        <v>77.13643472737483</v>
       </c>
       <c r="O20" t="n">
-        <v>404.9340177042954</v>
+        <v>404.9340177042952</v>
       </c>
       <c r="P20" t="n">
-        <v>313.1195329430788</v>
+        <v>313.1195329430786</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.91941669305626</v>
+        <v>89.91941669305622</v>
       </c>
       <c r="K21" t="n">
         <v>281.4710689145775</v>
       </c>
       <c r="L21" t="n">
-        <v>436.2942811356635</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M21" t="n">
-        <v>369.0637238950039</v>
+        <v>557.7799487654793</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>280.619088442532</v>
       </c>
       <c r="O21" t="n">
-        <v>469.3353133130068</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.6236513462149</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>63.89980541031744</v>
+        <v>63.8998054103174</v>
       </c>
       <c r="L22" t="n">
-        <v>139.9569111982854</v>
+        <v>139.9569111982853</v>
       </c>
       <c r="M22" t="n">
-        <v>159.6027647581501</v>
+        <v>159.60276475815</v>
       </c>
       <c r="N22" t="n">
-        <v>159.0748964987485</v>
+        <v>159.0748964987484</v>
       </c>
       <c r="O22" t="n">
-        <v>135.9025721957935</v>
+        <v>135.9025721957934</v>
       </c>
       <c r="P22" t="n">
-        <v>94.78896076239228</v>
+        <v>94.78896076239224</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5118611190561</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>315.6836880634666</v>
+        <v>315.6836880634665</v>
       </c>
       <c r="L23" t="n">
-        <v>442.1082841475052</v>
+        <v>439.4615291762149</v>
       </c>
       <c r="M23" t="n">
-        <v>453.7670009910563</v>
+        <v>498.1424273827388</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>484.7172074029602</v>
       </c>
       <c r="O23" t="n">
-        <v>404.9340177042954</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>313.1195329430788</v>
+        <v>313.1195329430786</v>
       </c>
       <c r="Q23" t="n">
-        <v>157.4588465069737</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>281.4710689145775</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M24" t="n">
-        <v>557.779948765479</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>557.779948765479</v>
+        <v>458.9831405880606</v>
       </c>
       <c r="O24" t="n">
-        <v>249.0528375057716</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P24" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.6236513462149</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>63.89980541031744</v>
+        <v>63.8998054103174</v>
       </c>
       <c r="L25" t="n">
-        <v>139.9569111982854</v>
+        <v>139.9569111982853</v>
       </c>
       <c r="M25" t="n">
-        <v>159.6027647581501</v>
+        <v>159.60276475815</v>
       </c>
       <c r="N25" t="n">
-        <v>159.0748964987485</v>
+        <v>159.0748964987484</v>
       </c>
       <c r="O25" t="n">
-        <v>135.9025721957935</v>
+        <v>135.9025721957934</v>
       </c>
       <c r="P25" t="n">
-        <v>94.78896076239228</v>
+        <v>94.78896076239224</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>121.5118611190561</v>
+        <v>223.27999971656</v>
       </c>
       <c r="K26" t="n">
-        <v>417.4518266609706</v>
+        <v>417.4518266609705</v>
       </c>
       <c r="L26" t="n">
-        <v>543.8764227450091</v>
+        <v>543.876422745009</v>
       </c>
       <c r="M26" t="n">
-        <v>599.9105659802429</v>
+        <v>498.1424273827388</v>
       </c>
       <c r="N26" t="n">
-        <v>586.4853460004643</v>
+        <v>557.3484824528762</v>
       </c>
       <c r="O26" t="n">
-        <v>477.565292754211</v>
+        <v>506.7021563017992</v>
       </c>
       <c r="P26" t="n">
-        <v>414.8876715405827</v>
+        <v>414.8876715405826</v>
       </c>
       <c r="Q26" t="n">
         <v>259.2269851044776</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.91941669305626</v>
+        <v>89.91941669305622</v>
       </c>
       <c r="K27" t="n">
         <v>281.4710689145775</v>
       </c>
       <c r="L27" t="n">
-        <v>436.2942811356635</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M27" t="n">
-        <v>567.858599836184</v>
+        <v>567.8585998361839</v>
       </c>
       <c r="N27" t="n">
-        <v>95.96342635147606</v>
+        <v>596.4183323156938</v>
       </c>
       <c r="O27" t="n">
-        <v>469.3353133130068</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P27" t="n">
-        <v>363.8757761779102</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>198.6236513462149</v>
+        <v>62.0445215599081</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.54067607114006</v>
+        <v>60.54067607114008</v>
       </c>
       <c r="K28" t="n">
-        <v>165.6679440078214</v>
+        <v>165.6679440078211</v>
       </c>
       <c r="L28" t="n">
-        <v>241.7250497957899</v>
+        <v>241.7250497957893</v>
       </c>
       <c r="M28" t="n">
         <v>261.370903355654</v>
@@ -36771,7 +36771,7 @@
         <v>196.5570993598962</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.20665478932843</v>
+        <v>85.20665478932844</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>223.2799997165601</v>
       </c>
       <c r="K29" t="n">
-        <v>417.4518266609706</v>
+        <v>334.6903042650246</v>
       </c>
       <c r="L29" t="n">
-        <v>543.8764227450091</v>
+        <v>543.876422745009</v>
       </c>
       <c r="M29" t="n">
-        <v>570.7737024326542</v>
+        <v>599.9105659802428</v>
       </c>
       <c r="N29" t="n">
-        <v>586.4853460004643</v>
+        <v>586.4853460004642</v>
       </c>
       <c r="O29" t="n">
         <v>506.7021563017993</v>
       </c>
       <c r="P29" t="n">
-        <v>313.1195329430788</v>
+        <v>414.8876715405827</v>
       </c>
       <c r="Q29" t="n">
         <v>259.2269851044776</v>
       </c>
       <c r="R29" t="n">
-        <v>48.14347974914583</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.91941669305626</v>
+        <v>89.91941669305623</v>
       </c>
       <c r="K30" t="n">
-        <v>281.4710689145775</v>
+        <v>217.3104440860239</v>
       </c>
       <c r="L30" t="n">
-        <v>436.2942811356635</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>567.858599836184</v>
+        <v>567.8585998361839</v>
       </c>
       <c r="N30" t="n">
-        <v>95.96342635147606</v>
+        <v>596.4183323156939</v>
       </c>
       <c r="O30" t="n">
-        <v>469.3353133130068</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P30" t="n">
         <v>363.8757761779102</v>
       </c>
       <c r="Q30" t="n">
-        <v>198.6236513462149</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.54067607114006</v>
+        <v>60.5406760711401</v>
       </c>
       <c r="K31" t="n">
         <v>165.6679440078214</v>
       </c>
       <c r="L31" t="n">
-        <v>241.7250497957893</v>
+        <v>241.7250497957894</v>
       </c>
       <c r="M31" t="n">
         <v>261.370903355654</v>
@@ -37005,10 +37005,10 @@
         <v>237.6707107932974</v>
       </c>
       <c r="P31" t="n">
-        <v>196.5570993598962</v>
+        <v>196.5570993598963</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.20665478932843</v>
+        <v>85.20665478932847</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.2799997165601</v>
+        <v>121.5118611190561</v>
       </c>
       <c r="K32" t="n">
-        <v>417.4518266609706</v>
+        <v>417.4518266609705</v>
       </c>
       <c r="L32" t="n">
-        <v>543.8764227450091</v>
+        <v>543.876422745009</v>
       </c>
       <c r="M32" t="n">
-        <v>599.9105659802429</v>
+        <v>599.9105659802428</v>
       </c>
       <c r="N32" t="n">
-        <v>586.4853460004643</v>
+        <v>557.3484824528764</v>
       </c>
       <c r="O32" t="n">
-        <v>506.7021563017993</v>
+        <v>506.7021563017992</v>
       </c>
       <c r="P32" t="n">
-        <v>313.1195329430788</v>
+        <v>414.8876715405826</v>
       </c>
       <c r="Q32" t="n">
-        <v>230.0901215568892</v>
+        <v>259.2269851044776</v>
       </c>
       <c r="R32" t="n">
         <v>48.14347974914583</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.91941669305626</v>
+        <v>89.91941669305622</v>
       </c>
       <c r="K33" t="n">
         <v>281.4710689145775</v>
       </c>
       <c r="L33" t="n">
-        <v>436.2942811356635</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M33" t="n">
-        <v>567.858599836184</v>
+        <v>567.8585998361839</v>
       </c>
       <c r="N33" t="n">
-        <v>95.96342635147606</v>
+        <v>95.96342635147698</v>
       </c>
       <c r="O33" t="n">
-        <v>469.3353133130068</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P33" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q33" t="n">
-        <v>198.6236513462149</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.54067607114006</v>
+        <v>60.54067607114008</v>
       </c>
       <c r="K34" t="n">
         <v>165.6679440078214</v>
@@ -37233,7 +37233,7 @@
         <v>241.7250497957893</v>
       </c>
       <c r="M34" t="n">
-        <v>261.3709033556547</v>
+        <v>261.370903355654</v>
       </c>
       <c r="N34" t="n">
         <v>260.8430350962524</v>
@@ -37242,10 +37242,10 @@
         <v>237.6707107932974</v>
       </c>
       <c r="P34" t="n">
-        <v>196.5570993598962</v>
+        <v>196.5570993598958</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.20665478932843</v>
+        <v>85.20665478932844</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>44.63637612404398</v>
+        <v>121.5118611190561</v>
       </c>
       <c r="K35" t="n">
-        <v>315.6836880634666</v>
+        <v>315.6836880634665</v>
       </c>
       <c r="L35" t="n">
-        <v>442.1082841475052</v>
+        <v>442.108284147505</v>
       </c>
       <c r="M35" t="n">
-        <v>498.142427382739</v>
+        <v>498.1424273827388</v>
       </c>
       <c r="N35" t="n">
-        <v>484.7172074029604</v>
+        <v>250.3828759009766</v>
       </c>
       <c r="O35" t="n">
-        <v>404.9340177042954</v>
+        <v>404.9340177042952</v>
       </c>
       <c r="P35" t="n">
-        <v>313.1195329430788</v>
+        <v>313.1195329430786</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>89.91941669305626</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>281.4710689145775</v>
       </c>
       <c r="L36" t="n">
-        <v>405.1746884844527</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M36" t="n">
-        <v>567.858599836184</v>
+        <v>157.3231105650238</v>
       </c>
       <c r="N36" t="n">
-        <v>596.418332315694</v>
+        <v>596.4183323156938</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P36" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q36" t="n">
-        <v>198.6236513462149</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>63.89980541031744</v>
+        <v>63.8998054103174</v>
       </c>
       <c r="L37" t="n">
-        <v>139.9569111982854</v>
+        <v>139.9569111982853</v>
       </c>
       <c r="M37" t="n">
-        <v>159.6027647581501</v>
+        <v>159.60276475815</v>
       </c>
       <c r="N37" t="n">
-        <v>159.0748964987485</v>
+        <v>159.0748964987484</v>
       </c>
       <c r="O37" t="n">
-        <v>135.9025721957935</v>
+        <v>135.9025721957934</v>
       </c>
       <c r="P37" t="n">
-        <v>94.78896076239228</v>
+        <v>94.78896076239224</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>121.5118611190561</v>
       </c>
       <c r="K38" t="n">
-        <v>315.6836880634666</v>
+        <v>315.6836880634665</v>
       </c>
       <c r="L38" t="n">
-        <v>442.1082841475052</v>
+        <v>207.7739526455214</v>
       </c>
       <c r="M38" t="n">
-        <v>498.142427382739</v>
+        <v>498.1424273827388</v>
       </c>
       <c r="N38" t="n">
-        <v>250.3828759009743</v>
+        <v>484.7172074029602</v>
       </c>
       <c r="O38" t="n">
-        <v>404.9340177042954</v>
+        <v>404.9340177042952</v>
       </c>
       <c r="P38" t="n">
-        <v>313.1195329430788</v>
+        <v>313.1195329430786</v>
       </c>
       <c r="Q38" t="n">
-        <v>157.4588465069737</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>281.4710689145775</v>
       </c>
       <c r="L39" t="n">
-        <v>436.2942811356635</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M39" t="n">
-        <v>567.858599836184</v>
+        <v>567.8585998361839</v>
       </c>
       <c r="N39" t="n">
-        <v>185.8828430445321</v>
+        <v>596.4183323156938</v>
       </c>
       <c r="O39" t="n">
-        <v>469.3353133130068</v>
+        <v>58.79982404184572</v>
       </c>
       <c r="P39" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q39" t="n">
-        <v>198.6236513462149</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>63.89980541031744</v>
+        <v>63.8998054103174</v>
       </c>
       <c r="L40" t="n">
-        <v>139.9569111982854</v>
+        <v>139.9569111982853</v>
       </c>
       <c r="M40" t="n">
-        <v>159.6027647581501</v>
+        <v>159.60276475815</v>
       </c>
       <c r="N40" t="n">
-        <v>159.0748964987485</v>
+        <v>159.0748964987484</v>
       </c>
       <c r="O40" t="n">
-        <v>135.9025721957935</v>
+        <v>135.9025721957934</v>
       </c>
       <c r="P40" t="n">
-        <v>94.78896076239228</v>
+        <v>94.78896076239224</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>121.5118611190561</v>
       </c>
       <c r="K41" t="n">
-        <v>315.6836880634666</v>
+        <v>81.34935656148286</v>
       </c>
       <c r="L41" t="n">
-        <v>442.1082841475052</v>
+        <v>442.108284147505</v>
       </c>
       <c r="M41" t="n">
-        <v>498.142427382739</v>
+        <v>498.1424273827388</v>
       </c>
       <c r="N41" t="n">
-        <v>484.7172074029604</v>
+        <v>484.7172074029602</v>
       </c>
       <c r="O41" t="n">
-        <v>404.9340177042954</v>
+        <v>404.9340177042952</v>
       </c>
       <c r="P41" t="n">
-        <v>200.2970625601494</v>
+        <v>313.1195329430786</v>
       </c>
       <c r="Q41" t="n">
-        <v>157.4588465069737</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.91941669305626</v>
+        <v>89.91941669305622</v>
       </c>
       <c r="K42" t="n">
-        <v>281.4710689145775</v>
+        <v>250.3514762633669</v>
       </c>
       <c r="L42" t="n">
-        <v>134.4630265176604</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M42" t="n">
-        <v>567.858599836184</v>
+        <v>567.8585998361839</v>
       </c>
       <c r="N42" t="n">
-        <v>596.418332315694</v>
+        <v>596.4183323156938</v>
       </c>
       <c r="O42" t="n">
-        <v>469.3353133130068</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>63.89980541031744</v>
+        <v>63.8998054103174</v>
       </c>
       <c r="L43" t="n">
-        <v>139.9569111982854</v>
+        <v>139.9569111982853</v>
       </c>
       <c r="M43" t="n">
-        <v>159.6027647581501</v>
+        <v>159.60276475815</v>
       </c>
       <c r="N43" t="n">
-        <v>159.0748964987485</v>
+        <v>159.0748964987484</v>
       </c>
       <c r="O43" t="n">
-        <v>135.9025721957935</v>
+        <v>135.9025721957934</v>
       </c>
       <c r="P43" t="n">
-        <v>94.78896076239228</v>
+        <v>94.78896076239224</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.5118611190561</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>315.6836880634666</v>
+        <v>202.8612176805389</v>
       </c>
       <c r="L44" t="n">
-        <v>442.1082841475052</v>
+        <v>442.108284147505</v>
       </c>
       <c r="M44" t="n">
-        <v>498.142427382739</v>
+        <v>498.1424273827388</v>
       </c>
       <c r="N44" t="n">
-        <v>484.7172074029604</v>
+        <v>484.7172074029602</v>
       </c>
       <c r="O44" t="n">
-        <v>404.9340177042954</v>
+        <v>404.9340177042952</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2440479480667</v>
+        <v>313.1195329430786</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>157.4588465069736</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.91941669305626</v>
+        <v>89.91941669305622</v>
       </c>
       <c r="K45" t="n">
         <v>281.4710689145775</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>436.2942811356634</v>
       </c>
       <c r="M45" t="n">
-        <v>567.858599836184</v>
+        <v>567.8585998361839</v>
       </c>
       <c r="N45" t="n">
-        <v>596.418332315694</v>
+        <v>95.96342635147744</v>
       </c>
       <c r="O45" t="n">
-        <v>405.1746884844522</v>
+        <v>469.3353133130067</v>
       </c>
       <c r="P45" t="n">
-        <v>363.8757761779102</v>
+        <v>363.8757761779101</v>
       </c>
       <c r="Q45" t="n">
-        <v>198.6236513462149</v>
+        <v>198.6236513462148</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>63.89980541031744</v>
+        <v>63.8998054103174</v>
       </c>
       <c r="L46" t="n">
-        <v>139.9569111982854</v>
+        <v>139.9569111982853</v>
       </c>
       <c r="M46" t="n">
-        <v>159.6027647581501</v>
+        <v>159.60276475815</v>
       </c>
       <c r="N46" t="n">
-        <v>159.0748964987485</v>
+        <v>159.0748964987484</v>
       </c>
       <c r="O46" t="n">
-        <v>135.9025721957935</v>
+        <v>135.9025721957934</v>
       </c>
       <c r="P46" t="n">
-        <v>94.78896076239228</v>
+        <v>94.78896076239224</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
